--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_2_31.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_2_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2350815.167074853</v>
+        <v>2350418.574221177</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>261098.0247275255</v>
+        <v>261098.0247275271</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736556</v>
+        <v>504792.0292736552</v>
       </c>
     </row>
     <row r="9">
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>154.3373491720715</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
         <v>411.9429466803539</v>
@@ -677,7 +677,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>110.218208340671</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>160.0866360314548</v>
@@ -744,7 +744,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
@@ -756,7 +756,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>61.33875195286294</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,16 +789,16 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>80.57436481935345</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>195.9378182409833</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>100.68280137235</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>257.7395212081474</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>278.6319219789759</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>234.9226045341866</v>
       </c>
     </row>
     <row r="6">
@@ -978,22 +978,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>104.0896421586315</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>171.4932220820156</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
         <v>190.5961130869169</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="W7" t="n">
-        <v>40.63244338022742</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>36.29058589159397</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>312.648761945392</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1218,16 +1218,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>74.25201978836913</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
@@ -1275,7 +1275,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>138.33144824894</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
         <v>190.5961130869169</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>50.77333445464513</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>12.59665167322035</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>276.6729386146302</v>
       </c>
       <c r="C11" t="n">
-        <v>112.2199446915755</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E11" t="n">
-        <v>277.4076971867455</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>296.5795132747227</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>298.5127811721452</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>216.0628961504551</v>
       </c>
       <c r="I11" t="n">
-        <v>57.65886129508323</v>
+        <v>28.95805838532593</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.92652010774086</v>
+        <v>71.92652010774083</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>138.9063174149371</v>
       </c>
       <c r="V11" t="n">
         <v>220.1793158548093</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X11" t="n">
-        <v>264.7796735655129</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y11" t="n">
-        <v>276.1762713617117</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="12">
@@ -1455,7 +1455,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>87.97340098538564</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
@@ -1467,7 +1467,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1500,10 +1500,10 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T12" t="n">
-        <v>174.9456269887333</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U12" t="n">
-        <v>102.8796789694642</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V12" t="n">
         <v>226.1116663261494</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.2896494893273</v>
+        <v>68.28964948932727</v>
       </c>
       <c r="C13" t="n">
-        <v>54.48964433472779</v>
+        <v>54.48964433472776</v>
       </c>
       <c r="D13" t="n">
-        <v>38.11100873230617</v>
+        <v>38.11100873230615</v>
       </c>
       <c r="E13" t="n">
-        <v>37.05875858808562</v>
+        <v>37.0587585880856</v>
       </c>
       <c r="F13" t="n">
-        <v>37.52568291627193</v>
+        <v>37.5256829162719</v>
       </c>
       <c r="G13" t="n">
-        <v>53.80038563761977</v>
+        <v>53.80038563762086</v>
       </c>
       <c r="H13" t="n">
-        <v>44.34875326031019</v>
+        <v>44.34875326031016</v>
       </c>
       <c r="I13" t="n">
-        <v>29.33084844513954</v>
+        <v>29.33084844513951</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.59639806355685</v>
+        <v>34.59639806355682</v>
       </c>
       <c r="S13" t="n">
-        <v>98.14249946214059</v>
+        <v>98.14249946214056</v>
       </c>
       <c r="T13" t="n">
         <v>117.4169981442692</v>
@@ -1588,13 +1588,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W13" t="n">
-        <v>169.8646719595662</v>
+        <v>169.8646719595661</v>
       </c>
       <c r="X13" t="n">
-        <v>115.5097739553693</v>
+        <v>115.5097739553692</v>
       </c>
       <c r="Y13" t="n">
-        <v>106.384641711437</v>
+        <v>106.3846417114369</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>276.6729386146302</v>
       </c>
       <c r="C14" t="n">
-        <v>264.6842555723119</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>255.6655596168399</v>
       </c>
       <c r="E14" t="n">
-        <v>277.4076971867455</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>296.5795132747226</v>
       </c>
       <c r="G14" t="n">
-        <v>298.5127811721451</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>57.6588612950832</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.92652010774084</v>
+        <v>71.92652010774083</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U14" t="n">
-        <v>105.0714610355186</v>
+        <v>138.9063174149371</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W14" t="n">
         <v>245.4794153327662</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>204.1836129533456</v>
       </c>
       <c r="Y14" t="n">
         <v>276.1762713617116</v>
@@ -1689,7 +1689,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>79.86592178137815</v>
       </c>
       <c r="E15" t="n">
         <v>145.5577298436975</v>
@@ -1698,13 +1698,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>14.01104946873953</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
-        <v>87.08585307182717</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.28964948932729</v>
+        <v>68.28964948932727</v>
       </c>
       <c r="C16" t="n">
-        <v>54.48964433472777</v>
+        <v>54.48964433472776</v>
       </c>
       <c r="D16" t="n">
-        <v>38.11100873230616</v>
+        <v>38.11100873230615</v>
       </c>
       <c r="E16" t="n">
-        <v>37.05875858808561</v>
+        <v>37.0587585880856</v>
       </c>
       <c r="F16" t="n">
-        <v>37.52568291627192</v>
+        <v>37.5256829162719</v>
       </c>
       <c r="G16" t="n">
-        <v>53.80038563761975</v>
+        <v>53.80038563761974</v>
       </c>
       <c r="H16" t="n">
-        <v>44.34875326031018</v>
+        <v>44.34875326031016</v>
       </c>
       <c r="I16" t="n">
-        <v>29.33084844513952</v>
+        <v>29.33084844513951</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.59639806355683</v>
+        <v>34.59639806355682</v>
       </c>
       <c r="S16" t="n">
-        <v>98.14249946214058</v>
+        <v>98.14249946214056</v>
       </c>
       <c r="T16" t="n">
         <v>117.4169981442692</v>
@@ -1828,7 +1828,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X16" t="n">
-        <v>115.5097739553693</v>
+        <v>115.5097739553692</v>
       </c>
       <c r="Y16" t="n">
         <v>106.3846417114369</v>
@@ -1844,22 +1844,22 @@
         <v>216.4199433826097</v>
       </c>
       <c r="C17" t="n">
-        <v>204.4312603402915</v>
+        <v>204.4312603402914</v>
       </c>
       <c r="D17" t="n">
-        <v>195.4125643848195</v>
+        <v>195.4125643848194</v>
       </c>
       <c r="E17" t="n">
-        <v>217.154701954725</v>
+        <v>217.1547019547249</v>
       </c>
       <c r="F17" t="n">
-        <v>236.3265180427022</v>
+        <v>236.3265180427021</v>
       </c>
       <c r="G17" t="n">
-        <v>238.2597859401247</v>
+        <v>238.2597859401246</v>
       </c>
       <c r="H17" t="n">
-        <v>155.8099009184346</v>
+        <v>155.8099009184345</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.6735248757202</v>
+        <v>11.67352487572029</v>
       </c>
       <c r="T17" t="n">
-        <v>48.43219606606974</v>
+        <v>48.43219606606965</v>
       </c>
       <c r="U17" t="n">
-        <v>78.6533221829167</v>
+        <v>78.65332218291661</v>
       </c>
       <c r="V17" t="n">
-        <v>159.9263206227889</v>
+        <v>159.9263206227888</v>
       </c>
       <c r="W17" t="n">
-        <v>185.2264201007458</v>
+        <v>185.2264201007457</v>
       </c>
       <c r="X17" t="n">
-        <v>204.5266783334924</v>
+        <v>204.5266783334923</v>
       </c>
       <c r="Y17" t="n">
         <v>215.9232761296911</v>
@@ -1932,7 +1932,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>8.064068754472975</v>
       </c>
       <c r="G18" t="n">
         <v>127.4412149769483</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
-        <v>85.1751270182407</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T18" t="n">
         <v>186.7982527956746</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>25.60507668829904</v>
+        <v>8.036654257306736</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>37.88950423012011</v>
+        <v>37.88950423012002</v>
       </c>
       <c r="T19" t="n">
-        <v>57.16400291224875</v>
+        <v>57.16400291224866</v>
       </c>
       <c r="U19" t="n">
-        <v>110.6351763755619</v>
+        <v>128.2035988065547</v>
       </c>
       <c r="V19" t="n">
-        <v>84.44479065693241</v>
+        <v>84.44479065693233</v>
       </c>
       <c r="W19" t="n">
-        <v>109.6116767275457</v>
+        <v>109.6116767275456</v>
       </c>
       <c r="X19" t="n">
-        <v>55.25677872334879</v>
+        <v>55.2567787233487</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.13164647941647</v>
+        <v>46.13164647941639</v>
       </c>
     </row>
     <row r="20">
@@ -2081,22 +2081,22 @@
         <v>216.4199433826097</v>
       </c>
       <c r="C20" t="n">
-        <v>204.4312603402915</v>
+        <v>204.4312603402914</v>
       </c>
       <c r="D20" t="n">
-        <v>195.4125643848195</v>
+        <v>195.4125643848194</v>
       </c>
       <c r="E20" t="n">
-        <v>217.154701954725</v>
+        <v>217.1547019547249</v>
       </c>
       <c r="F20" t="n">
-        <v>236.3265180427022</v>
+        <v>236.3265180427021</v>
       </c>
       <c r="G20" t="n">
-        <v>238.2597859401247</v>
+        <v>238.2597859401246</v>
       </c>
       <c r="H20" t="n">
-        <v>155.8099009184346</v>
+        <v>155.8099009184345</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.67352487572037</v>
+        <v>11.67352487572029</v>
       </c>
       <c r="T20" t="n">
-        <v>48.43219606606974</v>
+        <v>48.43219606606965</v>
       </c>
       <c r="U20" t="n">
-        <v>78.6533221829167</v>
+        <v>78.65332218291661</v>
       </c>
       <c r="V20" t="n">
-        <v>159.9263206227889</v>
+        <v>159.9263206227888</v>
       </c>
       <c r="W20" t="n">
-        <v>185.2264201007458</v>
+        <v>185.2264201007457</v>
       </c>
       <c r="X20" t="n">
-        <v>204.5266783334924</v>
+        <v>204.5266783334923</v>
       </c>
       <c r="Y20" t="n">
         <v>215.9232761296911</v>
@@ -2163,7 +2163,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>79.86592178137792</v>
       </c>
       <c r="E21" t="n">
         <v>145.5577298436975</v>
@@ -2172,7 +2172,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>69.85688611863738</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
         <v>98.93847887876893</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.036654257306822</v>
+        <v>8.036654257306736</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>17.56842243099284</v>
       </c>
       <c r="S22" t="n">
-        <v>37.88950423012011</v>
+        <v>37.88950423012002</v>
       </c>
       <c r="T22" t="n">
-        <v>57.16400291224875</v>
+        <v>57.16400291224866</v>
       </c>
       <c r="U22" t="n">
-        <v>110.6351763755619</v>
+        <v>110.6351763755618</v>
       </c>
       <c r="V22" t="n">
-        <v>84.44479065693241</v>
+        <v>84.44479065693233</v>
       </c>
       <c r="W22" t="n">
-        <v>109.6116767275457</v>
+        <v>109.6116767275456</v>
       </c>
       <c r="X22" t="n">
-        <v>72.825201154341</v>
+        <v>55.2567787233487</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.13164647941647</v>
+        <v>46.13164647941639</v>
       </c>
     </row>
     <row r="23">
@@ -2318,22 +2318,22 @@
         <v>216.4199433826097</v>
       </c>
       <c r="C23" t="n">
-        <v>204.4312603402915</v>
+        <v>204.4312603402914</v>
       </c>
       <c r="D23" t="n">
-        <v>195.4125643848195</v>
+        <v>195.4125643848194</v>
       </c>
       <c r="E23" t="n">
-        <v>217.154701954725</v>
+        <v>217.1547019547249</v>
       </c>
       <c r="F23" t="n">
-        <v>236.3265180427022</v>
+        <v>236.3265180427021</v>
       </c>
       <c r="G23" t="n">
-        <v>238.2597859401247</v>
+        <v>238.2597859401246</v>
       </c>
       <c r="H23" t="n">
-        <v>155.8099009184346</v>
+        <v>155.8099009184345</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.67352487572037</v>
+        <v>11.67352487572029</v>
       </c>
       <c r="T23" t="n">
-        <v>48.43219606606974</v>
+        <v>48.43219606606965</v>
       </c>
       <c r="U23" t="n">
-        <v>78.6533221829167</v>
+        <v>78.65332218291661</v>
       </c>
       <c r="V23" t="n">
-        <v>159.9263206227889</v>
+        <v>159.9263206227888</v>
       </c>
       <c r="W23" t="n">
-        <v>185.2264201007458</v>
+        <v>185.2264201007457</v>
       </c>
       <c r="X23" t="n">
-        <v>204.5266783334924</v>
+        <v>204.5266783334923</v>
       </c>
       <c r="Y23" t="n">
         <v>215.9232761296911</v>
@@ -2412,7 +2412,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>41.35415002045672</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
-        <v>129.2139239373636</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U24" t="n">
         <v>216.3098444776729</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>25.60507668829904</v>
+        <v>8.036654257306736</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>17.56842243099284</v>
       </c>
       <c r="S25" t="n">
-        <v>37.88950423012011</v>
+        <v>37.88950423012002</v>
       </c>
       <c r="T25" t="n">
-        <v>57.16400291224875</v>
+        <v>57.16400291224866</v>
       </c>
       <c r="U25" t="n">
-        <v>110.6351763755619</v>
+        <v>110.6351763755618</v>
       </c>
       <c r="V25" t="n">
-        <v>84.44479065693241</v>
+        <v>84.44479065693233</v>
       </c>
       <c r="W25" t="n">
-        <v>109.6116767275457</v>
+        <v>109.6116767275456</v>
       </c>
       <c r="X25" t="n">
-        <v>55.25677872334879</v>
+        <v>55.2567787233487</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.13164647941647</v>
+        <v>46.13164647941639</v>
       </c>
     </row>
     <row r="26">
@@ -2561,10 +2561,10 @@
         <v>255.6655596168399</v>
       </c>
       <c r="E26" t="n">
-        <v>277.4076971867455</v>
+        <v>264.5251847078231</v>
       </c>
       <c r="F26" t="n">
-        <v>296.5795132747226</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>298.5127811721451</v>
@@ -2573,7 +2573,7 @@
         <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
-        <v>44.70258087721027</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>71.92652010774083</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U26" t="n">
         <v>138.9063174149371</v>
@@ -2615,7 +2615,7 @@
         <v>220.1793158548093</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X26" t="n">
         <v>264.7796735655128</v>
@@ -2643,7 +2643,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F27" t="n">
-        <v>133.3468600696244</v>
+        <v>118.7813687841211</v>
       </c>
       <c r="G27" t="n">
         <v>127.4412149769483</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2801,16 +2801,16 @@
         <v>277.4076971867455</v>
       </c>
       <c r="F29" t="n">
-        <v>296.5795132747226</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>298.5127811721451</v>
+        <v>298.5127811721452</v>
       </c>
       <c r="H29" t="n">
-        <v>168.4600379224939</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I29" t="n">
-        <v>57.6588612950832</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>71.92652010774086</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V29" t="n">
         <v>220.1793158548093</v>
       </c>
       <c r="W29" t="n">
-        <v>245.4794153327662</v>
+        <v>245.4794153327663</v>
       </c>
       <c r="X29" t="n">
-        <v>264.7796735655128</v>
+        <v>264.7796735655129</v>
       </c>
       <c r="Y29" t="n">
-        <v>276.1762713617116</v>
+        <v>263.2937588827885</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133631</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
-        <v>136.7060008318836</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T30" t="n">
         <v>186.7982527956746</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.28964948932727</v>
+        <v>68.2896494893273</v>
       </c>
       <c r="C31" t="n">
-        <v>54.48964433472776</v>
+        <v>54.48964433472779</v>
       </c>
       <c r="D31" t="n">
-        <v>38.11100873230615</v>
+        <v>38.11100873230617</v>
       </c>
       <c r="E31" t="n">
-        <v>37.0587585880856</v>
+        <v>37.05875858808562</v>
       </c>
       <c r="F31" t="n">
-        <v>37.5256829162719</v>
+        <v>37.52568291627193</v>
       </c>
       <c r="G31" t="n">
-        <v>53.80038563761974</v>
+        <v>53.80038563761977</v>
       </c>
       <c r="H31" t="n">
-        <v>44.34875326031016</v>
+        <v>44.34875326031019</v>
       </c>
       <c r="I31" t="n">
-        <v>29.33084844513951</v>
+        <v>29.33084844513954</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.59639806355682</v>
+        <v>34.59639806355685</v>
       </c>
       <c r="S31" t="n">
-        <v>98.14249946214056</v>
+        <v>98.14249946214059</v>
       </c>
       <c r="T31" t="n">
         <v>117.4169981442692</v>
@@ -3010,13 +3010,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W31" t="n">
-        <v>169.8646719595661</v>
+        <v>169.8646719595662</v>
       </c>
       <c r="X31" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y31" t="n">
-        <v>106.3846417114369</v>
+        <v>106.384641711437</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>245.9460223007793</v>
+        <v>245.9460223007792</v>
       </c>
       <c r="C32" t="n">
-        <v>233.9573392584611</v>
+        <v>233.957339258461</v>
       </c>
       <c r="D32" t="n">
         <v>224.938643302989</v>
       </c>
       <c r="E32" t="n">
-        <v>246.6807808728946</v>
+        <v>246.6807808728945</v>
       </c>
       <c r="F32" t="n">
-        <v>265.8525969608718</v>
+        <v>265.8525969608717</v>
       </c>
       <c r="G32" t="n">
-        <v>267.7858648582943</v>
+        <v>267.7858648582942</v>
       </c>
       <c r="H32" t="n">
-        <v>185.3359798366042</v>
+        <v>185.3359798366041</v>
       </c>
       <c r="I32" t="n">
-        <v>26.93194498123233</v>
+        <v>26.93194498123225</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>41.19960379388996</v>
+        <v>41.19960379388988</v>
       </c>
       <c r="T32" t="n">
-        <v>77.95827498423932</v>
+        <v>77.95827498423924</v>
       </c>
       <c r="U32" t="n">
-        <v>108.1794011010863</v>
+        <v>108.1794011010862</v>
       </c>
       <c r="V32" t="n">
-        <v>189.4523995409585</v>
+        <v>189.4523995409584</v>
       </c>
       <c r="W32" t="n">
-        <v>214.7524990189154</v>
+        <v>214.7524990189153</v>
       </c>
       <c r="X32" t="n">
-        <v>234.052757251662</v>
+        <v>234.0527572516619</v>
       </c>
       <c r="Y32" t="n">
-        <v>245.4493550478607</v>
+        <v>245.4493550478606</v>
       </c>
     </row>
     <row r="33">
@@ -3123,7 +3123,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326532</v>
       </c>
       <c r="I33" t="n">
         <v>67.69846245683961</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.56273317547641</v>
+        <v>37.56273317547632</v>
       </c>
       <c r="C34" t="n">
-        <v>23.76272802087689</v>
+        <v>23.76272802087681</v>
       </c>
       <c r="D34" t="n">
-        <v>7.384092418455282</v>
+        <v>7.384092418455197</v>
       </c>
       <c r="E34" t="n">
-        <v>6.331842274234731</v>
+        <v>6.331842274234646</v>
       </c>
       <c r="F34" t="n">
-        <v>6.79876660242104</v>
+        <v>6.798766602420955</v>
       </c>
       <c r="G34" t="n">
-        <v>23.07346932376888</v>
+        <v>23.07346932376879</v>
       </c>
       <c r="H34" t="n">
-        <v>13.6218369464593</v>
+        <v>13.62183694645921</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3.869481749705955</v>
+        <v>3.869481749705869</v>
       </c>
       <c r="S34" t="n">
-        <v>67.4155831482897</v>
+        <v>67.41558314828961</v>
       </c>
       <c r="T34" t="n">
-        <v>86.69008183041834</v>
+        <v>86.69008183041825</v>
       </c>
       <c r="U34" t="n">
-        <v>140.1612552937315</v>
+        <v>140.1612552937314</v>
       </c>
       <c r="V34" t="n">
-        <v>113.970869575102</v>
+        <v>113.9708695751019</v>
       </c>
       <c r="W34" t="n">
-        <v>139.1377556457153</v>
+        <v>139.1377556457152</v>
       </c>
       <c r="X34" t="n">
-        <v>84.78285764151838</v>
+        <v>84.78285764151829</v>
       </c>
       <c r="Y34" t="n">
-        <v>75.65772539758606</v>
+        <v>75.65772539758598</v>
       </c>
     </row>
     <row r="35">
@@ -3357,13 +3357,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>112.875723691445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133634</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326521</v>
       </c>
       <c r="I39" t="n">
         <v>67.69846245683961</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3837,7 +3837,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
@@ -3977,25 +3977,25 @@
         <v>223.974038980382</v>
       </c>
       <c r="C44" t="n">
-        <v>211.9853559380638</v>
+        <v>211.9853559380637</v>
       </c>
       <c r="D44" t="n">
-        <v>202.9666599825918</v>
+        <v>202.9666599825917</v>
       </c>
       <c r="E44" t="n">
-        <v>224.7087975524973</v>
+        <v>224.7087975524972</v>
       </c>
       <c r="F44" t="n">
-        <v>243.8806136404745</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G44" t="n">
-        <v>245.813881537897</v>
+        <v>245.8138815378969</v>
       </c>
       <c r="H44" t="n">
-        <v>163.3639965162069</v>
+        <v>163.3639965162077</v>
       </c>
       <c r="I44" t="n">
-        <v>4.959961660835035</v>
+        <v>4.959961660834978</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.22762047349266</v>
+        <v>19.22762047349261</v>
       </c>
       <c r="T44" t="n">
-        <v>55.98629166384128</v>
+        <v>55.98629166384197</v>
       </c>
       <c r="U44" t="n">
-        <v>86.20741778068898</v>
+        <v>86.20741778068893</v>
       </c>
       <c r="V44" t="n">
-        <v>167.4804162205612</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W44" t="n">
-        <v>192.7805156985181</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X44" t="n">
-        <v>212.0807739312647</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y44" t="n">
         <v>223.4773717274634</v>
@@ -4071,7 +4071,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326521</v>
       </c>
       <c r="I45" t="n">
         <v>67.69846245683961</v>
@@ -4113,7 +4113,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V45" t="n">
-        <v>211.546175040646</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W45" t="n">
         <v>238.9027100790231</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.59074985507911</v>
+        <v>15.59074985507905</v>
       </c>
       <c r="C46" t="n">
-        <v>1.790744700479593</v>
+        <v>1.790744700479536</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.101486003371576</v>
+        <v>1.101486003371519</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>45.4435998278924</v>
+        <v>45.44359982789234</v>
       </c>
       <c r="T46" t="n">
-        <v>64.71809851002104</v>
+        <v>64.71809851002098</v>
       </c>
       <c r="U46" t="n">
-        <v>118.1892719733342</v>
+        <v>118.1892719733341</v>
       </c>
       <c r="V46" t="n">
-        <v>91.9988862547047</v>
+        <v>91.99888625470464</v>
       </c>
       <c r="W46" t="n">
-        <v>117.165772325318</v>
+        <v>117.1657723253179</v>
       </c>
       <c r="X46" t="n">
-        <v>62.81087432112108</v>
+        <v>62.81087432112102</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.68574207718876</v>
+        <v>53.68574207718871</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1531.880950269603</v>
+        <v>910.4585587194088</v>
       </c>
       <c r="C2" t="n">
-        <v>1531.880950269603</v>
+        <v>910.4585587194088</v>
       </c>
       <c r="D2" t="n">
-        <v>1531.880950269603</v>
+        <v>910.4585587194088</v>
       </c>
       <c r="E2" t="n">
-        <v>1375.984637974582</v>
+        <v>910.4585587194088</v>
       </c>
       <c r="F2" t="n">
-        <v>961.8334472847519</v>
+        <v>900.3477720699832</v>
       </c>
       <c r="G2" t="n">
-        <v>545.7294607389399</v>
+        <v>484.2437855241712</v>
       </c>
       <c r="H2" t="n">
-        <v>212.9081863362491</v>
+        <v>151.4225111214805</v>
       </c>
       <c r="I2" t="n">
-        <v>40.09098754504513</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="J2" t="n">
-        <v>40.09098754504513</v>
+        <v>112.0895318178508</v>
       </c>
       <c r="K2" t="n">
-        <v>257.4997446110828</v>
+        <v>352.2299038626335</v>
       </c>
       <c r="L2" t="n">
-        <v>605.3851176960291</v>
+        <v>700.1152769475798</v>
       </c>
       <c r="M2" t="n">
-        <v>998.6242839491169</v>
+        <v>1093.354443200668</v>
       </c>
       <c r="N2" t="n">
-        <v>1376.955642636833</v>
+        <v>1471.685801888383</v>
       </c>
       <c r="O2" t="n">
-        <v>1681.960227109666</v>
+        <v>1776.392480796202</v>
       </c>
       <c r="P2" t="n">
-        <v>1910.11712356572</v>
+        <v>2004.549377252255</v>
       </c>
       <c r="Q2" t="n">
-        <v>2004.549377252257</v>
+        <v>2004.549377252255</v>
       </c>
       <c r="R2" t="n">
-        <v>1913.91109074811</v>
+        <v>1913.911090748108</v>
       </c>
       <c r="S2" t="n">
-        <v>1913.91109074811</v>
+        <v>1726.682115378462</v>
       </c>
       <c r="T2" t="n">
-        <v>1913.91109074811</v>
+        <v>1502.323169109473</v>
       </c>
       <c r="U2" t="n">
-        <v>1913.91109074811</v>
+        <v>1247.437832823467</v>
       </c>
       <c r="V2" t="n">
-        <v>1913.91109074811</v>
+        <v>910.4585587194088</v>
       </c>
       <c r="W2" t="n">
-        <v>1913.91109074811</v>
+        <v>910.4585587194088</v>
       </c>
       <c r="X2" t="n">
-        <v>1531.880950269603</v>
+        <v>910.4585587194088</v>
       </c>
       <c r="Y2" t="n">
-        <v>1531.880950269603</v>
+        <v>910.4585587194088</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>919.4037480470892</v>
+        <v>765.9517880999435</v>
       </c>
       <c r="C3" t="n">
-        <v>757.7000752880439</v>
+        <v>604.2481153408983</v>
       </c>
       <c r="D3" t="n">
-        <v>618.8614382782559</v>
+        <v>465.4094783311103</v>
       </c>
       <c r="E3" t="n">
-        <v>471.8334283351272</v>
+        <v>465.4094783311103</v>
       </c>
       <c r="F3" t="n">
-        <v>337.1396302850015</v>
+        <v>330.7156802809847</v>
       </c>
       <c r="G3" t="n">
-        <v>208.4111303082861</v>
+        <v>201.9871803042692</v>
       </c>
       <c r="H3" t="n">
-        <v>108.4732728549841</v>
+        <v>102.0493228509673</v>
       </c>
       <c r="I3" t="n">
-        <v>40.09098754504513</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="J3" t="n">
-        <v>40.09098754504513</v>
+        <v>100.3451340781512</v>
       </c>
       <c r="K3" t="n">
-        <v>269.5815401052338</v>
+        <v>329.8356866383399</v>
       </c>
       <c r="L3" t="n">
-        <v>635.4033852753494</v>
+        <v>695.6575318084556</v>
       </c>
       <c r="M3" t="n">
-        <v>1120.436738785576</v>
+        <v>695.6575318084556</v>
       </c>
       <c r="N3" t="n">
-        <v>1152.481877406814</v>
+        <v>1191.783502678389</v>
       </c>
       <c r="O3" t="n">
-        <v>1544.681828190965</v>
+        <v>1583.98345346254</v>
       </c>
       <c r="P3" t="n">
-        <v>1846.777747466662</v>
+        <v>1846.777747466661</v>
       </c>
       <c r="Q3" t="n">
-        <v>2004.549377252257</v>
+        <v>2004.549377252255</v>
       </c>
       <c r="R3" t="n">
-        <v>1944.765108347202</v>
+        <v>1944.765108347201</v>
       </c>
       <c r="S3" t="n">
-        <v>1791.965621359943</v>
+        <v>1791.965621359941</v>
       </c>
       <c r="T3" t="n">
-        <v>1791.965621359943</v>
+        <v>1603.280517525926</v>
       </c>
       <c r="U3" t="n">
-        <v>1791.965621359943</v>
+        <v>1384.785725124236</v>
       </c>
       <c r="V3" t="n">
-        <v>1710.577374067666</v>
+        <v>1156.39010257257</v>
       </c>
       <c r="W3" t="n">
-        <v>1469.261505300977</v>
+        <v>1156.39010257257</v>
       </c>
       <c r="X3" t="n">
-        <v>1271.344517178771</v>
+        <v>958.4731144503647</v>
       </c>
       <c r="Y3" t="n">
-        <v>1078.82319082835</v>
+        <v>765.9517880999435</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>285.9938313083767</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="C4" t="n">
-        <v>285.9938313083767</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="D4" t="n">
-        <v>285.9938313083767</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="E4" t="n">
-        <v>285.9938313083767</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="F4" t="n">
-        <v>285.9938313083767</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="G4" t="n">
-        <v>285.9938313083767</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="H4" t="n">
-        <v>184.2940319423666</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="I4" t="n">
-        <v>40.09098754504513</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="J4" t="n">
-        <v>40.09098754504513</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="K4" t="n">
-        <v>73.69517528968854</v>
+        <v>73.69517528968851</v>
       </c>
       <c r="L4" t="n">
         <v>174.302254689948</v>
@@ -4507,31 +4507,31 @@
         <v>572.1502327909776</v>
       </c>
       <c r="Q4" t="n">
-        <v>572.1502327909776</v>
+        <v>533.6128914446666</v>
       </c>
       <c r="R4" t="n">
-        <v>572.1502327909776</v>
+        <v>533.6128914446666</v>
       </c>
       <c r="S4" t="n">
-        <v>572.1502327909776</v>
+        <v>533.6128914446666</v>
       </c>
       <c r="T4" t="n">
-        <v>572.1502327909776</v>
+        <v>300.4339382603455</v>
       </c>
       <c r="U4" t="n">
-        <v>572.1502327909776</v>
+        <v>300.4339382603455</v>
       </c>
       <c r="V4" t="n">
-        <v>572.1502327909776</v>
+        <v>300.4339382603455</v>
       </c>
       <c r="W4" t="n">
-        <v>285.9938313083767</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="X4" t="n">
-        <v>285.9938313083767</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="Y4" t="n">
-        <v>285.9938313083767</v>
+        <v>40.0909875450451</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>910.4585587194106</v>
+        <v>789.8723509964625</v>
       </c>
       <c r="C5" t="n">
-        <v>910.4585587194106</v>
+        <v>789.8723509964625</v>
       </c>
       <c r="D5" t="n">
-        <v>910.4585587194106</v>
+        <v>789.8723509964625</v>
       </c>
       <c r="E5" t="n">
-        <v>910.4585587194106</v>
+        <v>395.0866311025694</v>
       </c>
       <c r="F5" t="n">
-        <v>629.0121728820611</v>
+        <v>384.9758444531438</v>
       </c>
       <c r="G5" t="n">
-        <v>212.9081863362491</v>
+        <v>372.9122619477358</v>
       </c>
       <c r="H5" t="n">
-        <v>212.9081863362491</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="I5" t="n">
-        <v>40.09098754504513</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="J5" t="n">
-        <v>112.0895318178508</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="K5" t="n">
-        <v>352.2299038626336</v>
+        <v>280.2313595898279</v>
       </c>
       <c r="L5" t="n">
-        <v>605.3851176960291</v>
+        <v>628.1167326747741</v>
       </c>
       <c r="M5" t="n">
-        <v>998.6242839491169</v>
+        <v>1021.355898927862</v>
       </c>
       <c r="N5" t="n">
-        <v>1376.955642636833</v>
+        <v>1399.687257615578</v>
       </c>
       <c r="O5" t="n">
-        <v>1681.960227109666</v>
+        <v>1704.691842088412</v>
       </c>
       <c r="P5" t="n">
-        <v>1910.11712356572</v>
+        <v>1910.117123565718</v>
       </c>
       <c r="Q5" t="n">
-        <v>2004.549377252257</v>
+        <v>2004.549377252255</v>
       </c>
       <c r="R5" t="n">
-        <v>1913.91109074811</v>
+        <v>1913.911090748108</v>
       </c>
       <c r="S5" t="n">
-        <v>1726.682115378464</v>
+        <v>1726.682115378462</v>
       </c>
       <c r="T5" t="n">
-        <v>1502.323169109475</v>
+        <v>1726.682115378462</v>
       </c>
       <c r="U5" t="n">
-        <v>1247.437832823469</v>
+        <v>1726.682115378462</v>
       </c>
       <c r="V5" t="n">
-        <v>910.4585587194106</v>
+        <v>1389.702841274403</v>
       </c>
       <c r="W5" t="n">
-        <v>910.4585587194106</v>
+        <v>1027.167911132005</v>
       </c>
       <c r="X5" t="n">
-        <v>910.4585587194106</v>
+        <v>1027.167911132005</v>
       </c>
       <c r="Y5" t="n">
-        <v>910.4585587194106</v>
+        <v>789.8723509964625</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>919.4037480470892</v>
+        <v>553.9015803860075</v>
       </c>
       <c r="C6" t="n">
-        <v>757.7000752880439</v>
+        <v>392.1979076269622</v>
       </c>
       <c r="D6" t="n">
-        <v>618.8614382782559</v>
+        <v>392.1979076269622</v>
       </c>
       <c r="E6" t="n">
-        <v>471.8334283351272</v>
+        <v>245.1698976838334</v>
       </c>
       <c r="F6" t="n">
-        <v>337.1396302850015</v>
+        <v>140.0288449983471</v>
       </c>
       <c r="G6" t="n">
-        <v>208.4111303082861</v>
+        <v>140.0288449983471</v>
       </c>
       <c r="H6" t="n">
-        <v>108.4732728549841</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="I6" t="n">
-        <v>40.09098754504513</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="J6" t="n">
-        <v>100.3451340781513</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="K6" t="n">
-        <v>100.3451340781513</v>
+        <v>269.5815401052338</v>
       </c>
       <c r="L6" t="n">
-        <v>466.1669792482669</v>
+        <v>635.4033852753494</v>
       </c>
       <c r="M6" t="n">
-        <v>656.3559065368806</v>
+        <v>1120.436738785576</v>
       </c>
       <c r="N6" t="n">
-        <v>1152.481877406814</v>
+        <v>1152.481877406813</v>
       </c>
       <c r="O6" t="n">
-        <v>1544.681828190965</v>
+        <v>1544.681828190963</v>
       </c>
       <c r="P6" t="n">
-        <v>1846.777747466662</v>
+        <v>1846.777747466661</v>
       </c>
       <c r="Q6" t="n">
-        <v>2004.549377252257</v>
+        <v>2004.549377252255</v>
       </c>
       <c r="R6" t="n">
-        <v>2004.549377252257</v>
+        <v>1944.765108347201</v>
       </c>
       <c r="S6" t="n">
-        <v>1851.749890264997</v>
+        <v>1791.965621359941</v>
       </c>
       <c r="T6" t="n">
-        <v>1663.064786430982</v>
+        <v>1791.965621359941</v>
       </c>
       <c r="U6" t="n">
-        <v>1444.569994029292</v>
+        <v>1573.470828958251</v>
       </c>
       <c r="V6" t="n">
-        <v>1271.344517178771</v>
+        <v>1345.075206406585</v>
       </c>
       <c r="W6" t="n">
-        <v>1271.344517178771</v>
+        <v>1103.759337639895</v>
       </c>
       <c r="X6" t="n">
-        <v>1271.344517178771</v>
+        <v>905.8423495176895</v>
       </c>
       <c r="Y6" t="n">
-        <v>1078.82319082835</v>
+        <v>713.3210231672683</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>531.1073606897378</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="C7" t="n">
-        <v>361.491391151418</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="D7" t="n">
-        <v>361.491391151418</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="E7" t="n">
-        <v>361.491391151418</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="F7" t="n">
-        <v>209.0107361771951</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="G7" t="n">
-        <v>40.09098754504513</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="H7" t="n">
-        <v>40.09098754504513</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="I7" t="n">
-        <v>40.09098754504513</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="J7" t="n">
-        <v>40.09098754504513</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="K7" t="n">
-        <v>73.69517528968854</v>
+        <v>73.69517528968851</v>
       </c>
       <c r="L7" t="n">
         <v>174.302254689948</v>
@@ -4759,16 +4759,16 @@
         <v>572.1502327909776</v>
       </c>
       <c r="V7" t="n">
-        <v>572.1502327909776</v>
+        <v>326.247389027646</v>
       </c>
       <c r="W7" t="n">
-        <v>531.1073606897378</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="X7" t="n">
-        <v>531.1073606897378</v>
+        <v>40.0909875450451</v>
       </c>
       <c r="Y7" t="n">
-        <v>531.1073606897378</v>
+        <v>40.0909875450451</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1755.689182269809</v>
+        <v>831.8083099227024</v>
       </c>
       <c r="C8" t="n">
-        <v>1755.689182269809</v>
+        <v>831.8083099227024</v>
       </c>
       <c r="D8" t="n">
-        <v>1439.882352021938</v>
+        <v>458.984345149926</v>
       </c>
       <c r="E8" t="n">
-        <v>1045.096632128045</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="F8" t="n">
-        <v>630.9454414382152</v>
+        <v>54.08783860660719</v>
       </c>
       <c r="G8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4829,25 +4829,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>2010.574518555815</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T8" t="n">
-        <v>2010.574518555815</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U8" t="n">
-        <v>1755.689182269809</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="V8" t="n">
-        <v>1755.689182269809</v>
+        <v>1262.007322813121</v>
       </c>
       <c r="W8" t="n">
-        <v>1755.689182269809</v>
+        <v>1262.007322813121</v>
       </c>
       <c r="X8" t="n">
-        <v>1755.689182269809</v>
+        <v>1262.007322813121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1755.689182269809</v>
+        <v>868.4654673889589</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>921.3370166032433</v>
+        <v>614.6793913469587</v>
       </c>
       <c r="C9" t="n">
-        <v>759.6333438441981</v>
+        <v>452.9757185879134</v>
       </c>
       <c r="D9" t="n">
-        <v>620.7947068344101</v>
+        <v>314.1370815781255</v>
       </c>
       <c r="E9" t="n">
-        <v>473.7666968912813</v>
+        <v>314.1370815781255</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>314.1370815781255</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>185.4085816014101</v>
       </c>
       <c r="H9" t="n">
         <v>110.4065414111382</v>
@@ -4884,19 +4884,19 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L9" t="n">
-        <v>697.5908003646097</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M9" t="n">
-        <v>737.8796590913968</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N9" t="n">
-        <v>1249.145305214519</v>
+        <v>1464.39924743777</v>
       </c>
       <c r="O9" t="n">
-        <v>1641.34525599867</v>
+        <v>1856.59919822192</v>
       </c>
       <c r="P9" t="n">
         <v>1943.441175274367</v>
@@ -4905,28 +4905,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T9" t="n">
-        <v>2101.212805059961</v>
+        <v>1852.743432320892</v>
       </c>
       <c r="U9" t="n">
-        <v>1882.718012658271</v>
+        <v>1634.248639919202</v>
       </c>
       <c r="V9" t="n">
-        <v>1654.322390106605</v>
+        <v>1405.853017367536</v>
       </c>
       <c r="W9" t="n">
-        <v>1413.006521339915</v>
+        <v>1164.537148600846</v>
       </c>
       <c r="X9" t="n">
-        <v>1273.277785734925</v>
+        <v>966.6201604786407</v>
       </c>
       <c r="Y9" t="n">
-        <v>1080.756459384504</v>
+        <v>774.0988341282196</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>522.7973049282982</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>370.3166499540754</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
-        <v>201.3969013219254</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
         <v>42.02425610119923</v>
@@ -4990,22 +4990,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1319.971540054438</v>
+        <v>821.9201016243424</v>
       </c>
       <c r="C11" t="n">
-        <v>1206.618060567998</v>
+        <v>554.5622677129161</v>
       </c>
       <c r="D11" t="n">
-        <v>1206.618060567998</v>
+        <v>296.3142276959061</v>
       </c>
       <c r="E11" t="n">
-        <v>926.4082654298709</v>
+        <v>296.3142276959061</v>
       </c>
       <c r="F11" t="n">
-        <v>626.8329994958076</v>
+        <v>296.3142276959061</v>
       </c>
       <c r="G11" t="n">
-        <v>325.3049377057619</v>
+        <v>296.3142276959061</v>
       </c>
       <c r="H11" t="n">
-        <v>107.0595880588376</v>
+        <v>78.0688780489817</v>
       </c>
       <c r="I11" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J11" t="n">
         <v>233.1127221493323</v>
       </c>
       <c r="K11" t="n">
-        <v>585.5489580472416</v>
+        <v>473.253094194115</v>
       </c>
       <c r="L11" t="n">
-        <v>1018.290162363358</v>
+        <v>821.1384672790613</v>
       </c>
       <c r="M11" t="n">
-        <v>1411.529328616446</v>
+        <v>1214.377633532149</v>
       </c>
       <c r="N11" t="n">
-        <v>1789.860687304162</v>
+        <v>1592.708992219865</v>
       </c>
       <c r="O11" t="n">
-        <v>2094.865271776996</v>
+        <v>2006.030687174281</v>
       </c>
       <c r="P11" t="n">
-        <v>2323.022168233049</v>
+        <v>2346.483447483461</v>
       </c>
       <c r="Q11" t="n">
-        <v>2417.454421919586</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="R11" t="n">
-        <v>2440.915701169999</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="S11" t="n">
-        <v>2368.262650556119</v>
+        <v>2368.262650556118</v>
       </c>
       <c r="T11" t="n">
-        <v>2368.262650556119</v>
+        <v>2258.479629042896</v>
       </c>
       <c r="U11" t="n">
-        <v>2368.262650556119</v>
+        <v>2118.170217512656</v>
       </c>
       <c r="V11" t="n">
-        <v>2145.859301207827</v>
+        <v>1895.766868164364</v>
       </c>
       <c r="W11" t="n">
-        <v>2145.859301207827</v>
+        <v>1647.807862777731</v>
       </c>
       <c r="X11" t="n">
-        <v>1878.405085485086</v>
+        <v>1380.353647054991</v>
       </c>
       <c r="Y11" t="n">
-        <v>1599.439154816691</v>
+        <v>1101.387716386595</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>928.131074525444</v>
+        <v>801.5828004697355</v>
       </c>
       <c r="C12" t="n">
-        <v>766.4274017663987</v>
+        <v>639.8791277106902</v>
       </c>
       <c r="D12" t="n">
-        <v>627.5887647566108</v>
+        <v>501.0404907009023</v>
       </c>
       <c r="E12" t="n">
-        <v>480.560754813482</v>
+        <v>412.1784695035431</v>
       </c>
       <c r="F12" t="n">
-        <v>345.8669567633564</v>
+        <v>277.4846714534174</v>
       </c>
       <c r="G12" t="n">
-        <v>217.1384567866409</v>
+        <v>148.7561714767019</v>
       </c>
       <c r="H12" t="n">
-        <v>117.200599333339</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="I12" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J12" t="n">
-        <v>48.81831402339997</v>
+        <v>109.0724605565061</v>
       </c>
       <c r="K12" t="n">
-        <v>226.7273565210923</v>
+        <v>338.5630131166948</v>
       </c>
       <c r="L12" t="n">
-        <v>592.5492016912079</v>
+        <v>704.3848582868104</v>
       </c>
       <c r="M12" t="n">
-        <v>1077.582555201434</v>
+        <v>1189.418211797037</v>
       </c>
       <c r="N12" t="n">
-        <v>1588.848201324556</v>
+        <v>1700.683857920159</v>
       </c>
       <c r="O12" t="n">
-        <v>1981.048152108707</v>
+        <v>1981.048152108706</v>
       </c>
       <c r="P12" t="n">
         <v>2283.144071384404</v>
       </c>
       <c r="Q12" t="n">
-        <v>2440.915701169999</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="R12" t="n">
-        <v>2381.131432264944</v>
+        <v>2381.131432264943</v>
       </c>
       <c r="S12" t="n">
-        <v>2228.331945277685</v>
+        <v>2228.331945277684</v>
       </c>
       <c r="T12" t="n">
-        <v>2051.61919074361</v>
+        <v>2039.646841443669</v>
       </c>
       <c r="U12" t="n">
-        <v>1947.700323097687</v>
+        <v>1821.152049041979</v>
       </c>
       <c r="V12" t="n">
-        <v>1719.304700546021</v>
+        <v>1592.756426490313</v>
       </c>
       <c r="W12" t="n">
-        <v>1477.988831779331</v>
+        <v>1351.440557723623</v>
       </c>
       <c r="X12" t="n">
-        <v>1280.071843657126</v>
+        <v>1153.523569601418</v>
       </c>
       <c r="Y12" t="n">
-        <v>1087.550517306705</v>
+        <v>961.0022432509965</v>
       </c>
     </row>
     <row r="13">
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>346.459810906694</v>
+        <v>346.4598109066943</v>
       </c>
       <c r="C13" t="n">
-        <v>291.4197661241407</v>
+        <v>291.4197661241411</v>
       </c>
       <c r="D13" t="n">
-        <v>252.9237977076699</v>
+        <v>252.9237977076702</v>
       </c>
       <c r="E13" t="n">
-        <v>215.4907082247551</v>
+        <v>215.4907082247555</v>
       </c>
       <c r="F13" t="n">
-        <v>177.5859780062986</v>
+        <v>177.5859780062995</v>
       </c>
       <c r="G13" t="n">
-        <v>123.242154129915</v>
+        <v>123.2421541299148</v>
       </c>
       <c r="H13" t="n">
-        <v>78.44543366495506</v>
+        <v>78.44543366495503</v>
       </c>
       <c r="I13" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J13" t="n">
-        <v>102.2520783385576</v>
+        <v>102.2520783385573</v>
       </c>
       <c r="K13" t="n">
-        <v>248.1521299363278</v>
+        <v>248.1521299363274</v>
       </c>
       <c r="L13" t="n">
-        <v>461.0550731897139</v>
+        <v>461.0550731897135</v>
       </c>
       <c r="M13" t="n">
         <v>691.3444431704422</v>
       </c>
       <c r="N13" t="n">
-        <v>922.0626487731691</v>
+        <v>922.0626487731693</v>
       </c>
       <c r="O13" t="n">
-        <v>1132.822159121985</v>
+        <v>1132.822159121986</v>
       </c>
       <c r="P13" t="n">
         <v>1308.08650670325</v>
@@ -5230,19 +5230,19 @@
         <v>1129.929199403901</v>
       </c>
       <c r="U13" t="n">
-        <v>957.3148846487669</v>
+        <v>957.3148846487675</v>
       </c>
       <c r="V13" t="n">
-        <v>811.1555049629559</v>
+        <v>811.1555049629567</v>
       </c>
       <c r="W13" t="n">
-        <v>639.5750282361217</v>
+        <v>639.5750282361222</v>
       </c>
       <c r="X13" t="n">
-        <v>522.8984888872639</v>
+        <v>522.8984888872644</v>
       </c>
       <c r="Y13" t="n">
-        <v>415.4392548353074</v>
+        <v>415.4392548353078</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1455.737310814072</v>
+        <v>883.1282436568351</v>
       </c>
       <c r="C14" t="n">
-        <v>1188.379476902646</v>
+        <v>883.1282436568351</v>
       </c>
       <c r="D14" t="n">
-        <v>930.1314368856356</v>
+        <v>624.8802036398251</v>
       </c>
       <c r="E14" t="n">
-        <v>649.9216417475088</v>
+        <v>624.8802036398251</v>
       </c>
       <c r="F14" t="n">
-        <v>350.3463758134456</v>
+        <v>325.3049377057619</v>
       </c>
       <c r="G14" t="n">
-        <v>48.81831402339997</v>
+        <v>325.3049377057619</v>
       </c>
       <c r="H14" t="n">
-        <v>48.81831402339997</v>
+        <v>107.0595880588375</v>
       </c>
       <c r="I14" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J14" t="n">
-        <v>120.8168582962056</v>
+        <v>233.1127221493323</v>
       </c>
       <c r="K14" t="n">
-        <v>360.9572303409884</v>
+        <v>473.253094194115</v>
       </c>
       <c r="L14" t="n">
-        <v>817.1597139075172</v>
+        <v>821.1384672790613</v>
       </c>
       <c r="M14" t="n">
-        <v>1322.694744013732</v>
+        <v>1322.694744013731</v>
       </c>
       <c r="N14" t="n">
-        <v>1813.321966554574</v>
+        <v>1701.026102701447</v>
       </c>
       <c r="O14" t="n">
-        <v>2118.326551027408</v>
+        <v>2006.030687174281</v>
       </c>
       <c r="P14" t="n">
-        <v>2346.483447483462</v>
+        <v>2234.187583630334</v>
       </c>
       <c r="Q14" t="n">
-        <v>2440.915701169999</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="R14" t="n">
-        <v>2440.915701169999</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="S14" t="n">
-        <v>2368.262650556119</v>
+        <v>2368.262650556118</v>
       </c>
       <c r="T14" t="n">
-        <v>2368.262650556119</v>
+        <v>2258.479629042896</v>
       </c>
       <c r="U14" t="n">
-        <v>2262.129861631352</v>
+        <v>2118.170217512656</v>
       </c>
       <c r="V14" t="n">
-        <v>2262.129861631352</v>
+        <v>1895.766868164364</v>
       </c>
       <c r="W14" t="n">
-        <v>2014.17085624472</v>
+        <v>1647.807862777731</v>
       </c>
       <c r="X14" t="n">
-        <v>2014.17085624472</v>
+        <v>1441.561789087484</v>
       </c>
       <c r="Y14" t="n">
-        <v>1735.204925576325</v>
+        <v>1162.595858419088</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>801.5828004697364</v>
+        <v>801.5828004697355</v>
       </c>
       <c r="C15" t="n">
-        <v>639.8791277106911</v>
+        <v>639.8791277106902</v>
       </c>
       <c r="D15" t="n">
-        <v>501.0404907009032</v>
+        <v>559.2064794466719</v>
       </c>
       <c r="E15" t="n">
-        <v>354.0124807577744</v>
+        <v>412.1784695035431</v>
       </c>
       <c r="F15" t="n">
-        <v>219.3186827076488</v>
+        <v>277.4846714534174</v>
       </c>
       <c r="G15" t="n">
-        <v>205.1661074866998</v>
+        <v>148.7561714767019</v>
       </c>
       <c r="H15" t="n">
-        <v>117.200599333339</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="I15" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J15" t="n">
-        <v>48.81831402339997</v>
+        <v>109.0724605565061</v>
       </c>
       <c r="K15" t="n">
-        <v>226.7273565210923</v>
+        <v>338.5630131166948</v>
       </c>
       <c r="L15" t="n">
-        <v>592.5492016912079</v>
+        <v>704.3848582868104</v>
       </c>
       <c r="M15" t="n">
-        <v>1077.582555201434</v>
+        <v>1189.418211797037</v>
       </c>
       <c r="N15" t="n">
-        <v>1588.848201324556</v>
+        <v>1588.848201324555</v>
       </c>
       <c r="O15" t="n">
-        <v>1981.048152108707</v>
+        <v>1981.048152108706</v>
       </c>
       <c r="P15" t="n">
         <v>2283.144071384404</v>
       </c>
       <c r="Q15" t="n">
-        <v>2440.915701169999</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="R15" t="n">
-        <v>2381.131432264944</v>
+        <v>2381.131432264943</v>
       </c>
       <c r="S15" t="n">
-        <v>2228.331945277685</v>
+        <v>2228.331945277684</v>
       </c>
       <c r="T15" t="n">
-        <v>2039.64684144367</v>
+        <v>2039.646841443669</v>
       </c>
       <c r="U15" t="n">
-        <v>1821.15204904198</v>
+        <v>1821.152049041979</v>
       </c>
       <c r="V15" t="n">
-        <v>1592.756426490314</v>
+        <v>1592.756426490313</v>
       </c>
       <c r="W15" t="n">
-        <v>1351.440557723624</v>
+        <v>1351.440557723623</v>
       </c>
       <c r="X15" t="n">
-        <v>1153.523569601419</v>
+        <v>1153.523569601418</v>
       </c>
       <c r="Y15" t="n">
-        <v>961.0022432509974</v>
+        <v>961.0022432509965</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>346.4598109066937</v>
+        <v>346.4598109066941</v>
       </c>
       <c r="C16" t="n">
-        <v>291.4197661241404</v>
+        <v>291.4197661241408</v>
       </c>
       <c r="D16" t="n">
-        <v>252.9237977076696</v>
+        <v>252.9237977076699</v>
       </c>
       <c r="E16" t="n">
-        <v>215.4907082247548</v>
+        <v>215.4907082247551</v>
       </c>
       <c r="F16" t="n">
-        <v>177.5859780062983</v>
+        <v>177.5859780062985</v>
       </c>
       <c r="G16" t="n">
-        <v>123.2421541299148</v>
+        <v>123.242154129915</v>
       </c>
       <c r="H16" t="n">
-        <v>78.44543366495506</v>
+        <v>78.44543366495532</v>
       </c>
       <c r="I16" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J16" t="n">
-        <v>102.2520783385571</v>
+        <v>102.2520783385572</v>
       </c>
       <c r="K16" t="n">
-        <v>248.1521299363274</v>
+        <v>248.1521299363273</v>
       </c>
       <c r="L16" t="n">
         <v>461.0550731897135</v>
       </c>
       <c r="M16" t="n">
-        <v>691.344443170442</v>
+        <v>691.3444431704419</v>
       </c>
       <c r="N16" t="n">
-        <v>922.062648773169</v>
+        <v>922.0626487731691</v>
       </c>
       <c r="O16" t="n">
         <v>1132.822159121985</v>
@@ -5467,19 +5467,19 @@
         <v>1129.929199403901</v>
       </c>
       <c r="U16" t="n">
-        <v>957.314884648767</v>
+        <v>957.3148846487671</v>
       </c>
       <c r="V16" t="n">
-        <v>811.155504962956</v>
+        <v>811.1555049629561</v>
       </c>
       <c r="W16" t="n">
         <v>639.5750282361216</v>
       </c>
       <c r="X16" t="n">
-        <v>522.8984888872636</v>
+        <v>522.8984888872639</v>
       </c>
       <c r="Y16" t="n">
-        <v>415.4392548353072</v>
+        <v>415.4392548353075</v>
       </c>
     </row>
     <row r="17">
@@ -5495,70 +5495,70 @@
         <v>1102.316769822194</v>
       </c>
       <c r="D17" t="n">
-        <v>904.9303411506593</v>
+        <v>904.9303411506595</v>
       </c>
       <c r="E17" t="n">
-        <v>685.5821573580077</v>
+        <v>685.5821573580081</v>
       </c>
       <c r="F17" t="n">
-        <v>446.8685027694196</v>
+        <v>446.86850276942</v>
       </c>
       <c r="G17" t="n">
-        <v>206.2020523248491</v>
+        <v>206.202052324849</v>
       </c>
       <c r="H17" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="I17" t="n">
-        <v>51.38650662096785</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J17" t="n">
-        <v>295.3313800266004</v>
+        <v>120.8168582962056</v>
       </c>
       <c r="K17" t="n">
-        <v>535.4717520713832</v>
+        <v>360.9572303409884</v>
       </c>
       <c r="L17" t="n">
-        <v>883.3571251563294</v>
+        <v>708.8426034259346</v>
       </c>
       <c r="M17" t="n">
-        <v>1276.596291409417</v>
+        <v>1274.02809881185</v>
       </c>
       <c r="N17" t="n">
-        <v>1654.927650097133</v>
+        <v>1730.210222024461</v>
       </c>
       <c r="O17" t="n">
-        <v>2035.214806497296</v>
+        <v>2035.214806497295</v>
       </c>
       <c r="P17" t="n">
-        <v>2263.371702953349</v>
+        <v>2263.371702953348</v>
       </c>
       <c r="Q17" t="n">
-        <v>2357.803956639886</v>
+        <v>2357.803956639885</v>
       </c>
       <c r="R17" t="n">
-        <v>2440.915701169999</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="S17" t="n">
-        <v>2429.124261901594</v>
+        <v>2429.124261901593</v>
       </c>
       <c r="T17" t="n">
-        <v>2380.202851733847</v>
+        <v>2380.202851733846</v>
       </c>
       <c r="U17" t="n">
-        <v>2300.755051549083</v>
+        <v>2300.755051549082</v>
       </c>
       <c r="V17" t="n">
-        <v>2139.213313546266</v>
+        <v>2139.213313546265</v>
       </c>
       <c r="W17" t="n">
-        <v>1952.115919505109</v>
+        <v>1952.115919505107</v>
       </c>
       <c r="X17" t="n">
         <v>1745.523315127843</v>
       </c>
       <c r="Y17" t="n">
-        <v>1527.418995804923</v>
+        <v>1527.418995804922</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>928.131074525444</v>
+        <v>801.5828004697355</v>
       </c>
       <c r="C18" t="n">
-        <v>766.4274017663987</v>
+        <v>639.8791277106902</v>
       </c>
       <c r="D18" t="n">
-        <v>627.5887647566108</v>
+        <v>501.0404907009023</v>
       </c>
       <c r="E18" t="n">
-        <v>480.560754813482</v>
+        <v>354.0124807577735</v>
       </c>
       <c r="F18" t="n">
         <v>345.8669567633564</v>
@@ -5589,7 +5589,7 @@
         <v>117.200599333339</v>
       </c>
       <c r="I18" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J18" t="n">
         <v>109.0724605565061</v>
@@ -5613,31 +5613,31 @@
         <v>2394.979727980007</v>
       </c>
       <c r="Q18" t="n">
-        <v>2440.915701169999</v>
+        <v>2440.915701169998</v>
       </c>
       <c r="R18" t="n">
-        <v>2440.915701169999</v>
+        <v>2381.131432264943</v>
       </c>
       <c r="S18" t="n">
-        <v>2354.880219333392</v>
+        <v>2228.331945277684</v>
       </c>
       <c r="T18" t="n">
-        <v>2166.195115499377</v>
+        <v>2039.646841443669</v>
       </c>
       <c r="U18" t="n">
-        <v>1947.700323097687</v>
+        <v>1821.152049041979</v>
       </c>
       <c r="V18" t="n">
-        <v>1719.304700546021</v>
+        <v>1592.756426490313</v>
       </c>
       <c r="W18" t="n">
-        <v>1477.988831779331</v>
+        <v>1351.440557723623</v>
       </c>
       <c r="X18" t="n">
-        <v>1280.071843657126</v>
+        <v>1153.523569601418</v>
       </c>
       <c r="Y18" t="n">
-        <v>1087.550517306705</v>
+        <v>961.0022432509965</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="C19" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="D19" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="E19" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="F19" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="G19" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="H19" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="I19" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="J19" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339996</v>
       </c>
       <c r="K19" t="n">
-        <v>82.42250176804339</v>
+        <v>82.42250176804336</v>
       </c>
       <c r="L19" t="n">
         <v>183.0295811683029</v>
@@ -5686,37 +5686,37 @@
         <v>419.445429045505</v>
       </c>
       <c r="O19" t="n">
-        <v>517.9090755411947</v>
+        <v>517.9090755411946</v>
       </c>
       <c r="P19" t="n">
-        <v>580.8775592693326</v>
+        <v>580.8775592693324</v>
       </c>
       <c r="Q19" t="n">
-        <v>580.8775592693326</v>
+        <v>580.8775592693324</v>
       </c>
       <c r="R19" t="n">
-        <v>580.8775592693326</v>
+        <v>580.8775592693324</v>
       </c>
       <c r="S19" t="n">
         <v>542.6053327742617</v>
       </c>
       <c r="T19" t="n">
-        <v>484.8639156911821</v>
+        <v>484.8639156911822</v>
       </c>
       <c r="U19" t="n">
-        <v>373.1112122815236</v>
+        <v>355.3653310380967</v>
       </c>
       <c r="V19" t="n">
-        <v>287.8134439411878</v>
+        <v>270.067562697761</v>
       </c>
       <c r="W19" t="n">
-        <v>177.0945785598286</v>
+        <v>159.3486973164018</v>
       </c>
       <c r="X19" t="n">
-        <v>121.2796505564459</v>
+        <v>103.5337693130193</v>
       </c>
       <c r="Y19" t="n">
-        <v>74.68202784996465</v>
+        <v>56.93614660653807</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1308.812992388145</v>
+        <v>1308.812992388144</v>
       </c>
       <c r="C20" t="n">
-        <v>1102.316769822194</v>
+        <v>1102.316769822193</v>
       </c>
       <c r="D20" t="n">
-        <v>904.9303411506593</v>
+        <v>904.9303411506586</v>
       </c>
       <c r="E20" t="n">
-        <v>685.5821573580077</v>
+        <v>685.5821573580072</v>
       </c>
       <c r="F20" t="n">
-        <v>446.8685027694196</v>
+        <v>446.8685027694192</v>
       </c>
       <c r="G20" t="n">
-        <v>206.2020523248491</v>
+        <v>206.202052324849</v>
       </c>
       <c r="H20" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339994</v>
       </c>
       <c r="I20" t="n">
-        <v>51.38650662096785</v>
+        <v>48.81831402339994</v>
       </c>
       <c r="J20" t="n">
-        <v>123.3850508937735</v>
+        <v>120.8168582962056</v>
       </c>
       <c r="K20" t="n">
-        <v>363.5254229385563</v>
+        <v>360.9572303409884</v>
       </c>
       <c r="L20" t="n">
-        <v>711.4107960235026</v>
+        <v>708.8426034259346</v>
       </c>
       <c r="M20" t="n">
-        <v>1104.64996227659</v>
+        <v>1274.02809881185</v>
       </c>
       <c r="N20" t="n">
-        <v>1654.927650097133</v>
+        <v>1652.359457499565</v>
       </c>
       <c r="O20" t="n">
-        <v>1959.932234569967</v>
+        <v>1957.364041972399</v>
       </c>
       <c r="P20" t="n">
-        <v>2346.483447483462</v>
+        <v>2185.520938428453</v>
       </c>
       <c r="Q20" t="n">
-        <v>2440.915701169999</v>
+        <v>2440.915701169997</v>
       </c>
       <c r="R20" t="n">
-        <v>2440.915701169999</v>
+        <v>2440.915701169997</v>
       </c>
       <c r="S20" t="n">
-        <v>2429.124261901594</v>
+        <v>2429.124261901593</v>
       </c>
       <c r="T20" t="n">
-        <v>2380.202851733847</v>
+        <v>2380.202851733846</v>
       </c>
       <c r="U20" t="n">
-        <v>2300.755051549083</v>
+        <v>2300.755051549082</v>
       </c>
       <c r="V20" t="n">
         <v>2139.213313546265</v>
       </c>
       <c r="W20" t="n">
-        <v>1952.115919505108</v>
+        <v>1952.115919505107</v>
       </c>
       <c r="X20" t="n">
         <v>1745.523315127843</v>
       </c>
       <c r="Y20" t="n">
-        <v>1527.418995804923</v>
+        <v>1527.418995804922</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>801.5828004697364</v>
+        <v>801.582800469735</v>
       </c>
       <c r="C21" t="n">
-        <v>639.8791277106911</v>
+        <v>639.8791277106898</v>
       </c>
       <c r="D21" t="n">
-        <v>501.0404907009032</v>
+        <v>559.2064794466717</v>
       </c>
       <c r="E21" t="n">
-        <v>354.0124807577744</v>
+        <v>412.1784695035429</v>
       </c>
       <c r="F21" t="n">
-        <v>219.3186827076488</v>
+        <v>277.4846714534173</v>
       </c>
       <c r="G21" t="n">
         <v>148.7561714767019</v>
       </c>
       <c r="H21" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339994</v>
       </c>
       <c r="I21" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339994</v>
       </c>
       <c r="J21" t="n">
         <v>109.0724605565061</v>
       </c>
       <c r="K21" t="n">
-        <v>226.7273565210923</v>
+        <v>338.5630131166947</v>
       </c>
       <c r="L21" t="n">
-        <v>592.5492016912079</v>
+        <v>592.5492016912066</v>
       </c>
       <c r="M21" t="n">
-        <v>1077.582555201434</v>
+        <v>1077.582555201433</v>
       </c>
       <c r="N21" t="n">
-        <v>1588.848201324556</v>
+        <v>1588.848201324555</v>
       </c>
       <c r="O21" t="n">
-        <v>1981.048152108707</v>
+        <v>1981.048152108706</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.144071384404</v>
+        <v>2283.144071384403</v>
       </c>
       <c r="Q21" t="n">
-        <v>2440.915701169999</v>
+        <v>2440.915701169997</v>
       </c>
       <c r="R21" t="n">
-        <v>2381.131432264944</v>
+        <v>2381.131432264943</v>
       </c>
       <c r="S21" t="n">
-        <v>2228.331945277685</v>
+        <v>2228.331945277683</v>
       </c>
       <c r="T21" t="n">
-        <v>2039.64684144367</v>
+        <v>2039.646841443668</v>
       </c>
       <c r="U21" t="n">
-        <v>1821.15204904198</v>
+        <v>1821.152049041978</v>
       </c>
       <c r="V21" t="n">
-        <v>1592.756426490314</v>
+        <v>1592.756426490312</v>
       </c>
       <c r="W21" t="n">
-        <v>1351.440557723624</v>
+        <v>1351.440557723623</v>
       </c>
       <c r="X21" t="n">
-        <v>1153.523569601419</v>
+        <v>1153.523569601417</v>
       </c>
       <c r="Y21" t="n">
-        <v>961.0022432509974</v>
+        <v>961.002243250996</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339994</v>
       </c>
       <c r="C22" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339994</v>
       </c>
       <c r="D22" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339994</v>
       </c>
       <c r="E22" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339994</v>
       </c>
       <c r="F22" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339994</v>
       </c>
       <c r="G22" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339994</v>
       </c>
       <c r="H22" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339994</v>
       </c>
       <c r="I22" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339994</v>
       </c>
       <c r="J22" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339994</v>
       </c>
       <c r="K22" t="n">
-        <v>82.42250176804339</v>
+        <v>82.42250176804336</v>
       </c>
       <c r="L22" t="n">
         <v>183.0295811683029</v>
@@ -5923,37 +5923,37 @@
         <v>419.445429045505</v>
       </c>
       <c r="O22" t="n">
-        <v>517.9090755411947</v>
+        <v>517.9090755411946</v>
       </c>
       <c r="P22" t="n">
-        <v>580.8775592693326</v>
+        <v>580.8775592693324</v>
       </c>
       <c r="Q22" t="n">
-        <v>580.8775592693326</v>
+        <v>580.8775592693324</v>
       </c>
       <c r="R22" t="n">
-        <v>580.8775592693326</v>
+        <v>563.1316780259053</v>
       </c>
       <c r="S22" t="n">
-        <v>542.6053327742617</v>
+        <v>524.8594515308346</v>
       </c>
       <c r="T22" t="n">
-        <v>484.8639156911821</v>
+        <v>467.1180344477551</v>
       </c>
       <c r="U22" t="n">
-        <v>373.1112122815236</v>
+        <v>355.3653310380967</v>
       </c>
       <c r="V22" t="n">
-        <v>287.8134439411878</v>
+        <v>270.067562697761</v>
       </c>
       <c r="W22" t="n">
-        <v>177.0945785598286</v>
+        <v>159.3486973164018</v>
       </c>
       <c r="X22" t="n">
-        <v>103.5337693130195</v>
+        <v>103.5337693130193</v>
       </c>
       <c r="Y22" t="n">
-        <v>56.93614660653817</v>
+        <v>56.93614660653806</v>
       </c>
     </row>
     <row r="23">
@@ -5963,73 +5963,73 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1308.812992388145</v>
+        <v>1308.812992388144</v>
       </c>
       <c r="C23" t="n">
-        <v>1102.316769822194</v>
+        <v>1102.316769822193</v>
       </c>
       <c r="D23" t="n">
-        <v>904.9303411506592</v>
+        <v>904.9303411506588</v>
       </c>
       <c r="E23" t="n">
         <v>685.5821573580074</v>
       </c>
       <c r="F23" t="n">
-        <v>446.8685027694196</v>
+        <v>446.8685027694192</v>
       </c>
       <c r="G23" t="n">
-        <v>206.2020523248491</v>
+        <v>206.202052324849</v>
       </c>
       <c r="H23" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339994</v>
       </c>
       <c r="I23" t="n">
-        <v>51.38650662096785</v>
+        <v>48.81831402339994</v>
       </c>
       <c r="J23" t="n">
-        <v>295.3313800266004</v>
+        <v>281.7793673512134</v>
       </c>
       <c r="K23" t="n">
-        <v>535.4717520713832</v>
+        <v>521.9197393959962</v>
       </c>
       <c r="L23" t="n">
-        <v>883.3571251563294</v>
+        <v>869.8051124809424</v>
       </c>
       <c r="M23" t="n">
-        <v>1276.596291409417</v>
+        <v>1263.04427873403</v>
       </c>
       <c r="N23" t="n">
-        <v>1654.927650097133</v>
+        <v>1641.375637421746</v>
       </c>
       <c r="O23" t="n">
-        <v>1959.932234569967</v>
+        <v>2118.326551027407</v>
       </c>
       <c r="P23" t="n">
-        <v>2188.08913102602</v>
+        <v>2346.48344748346</v>
       </c>
       <c r="Q23" t="n">
-        <v>2357.803956639886</v>
+        <v>2440.915701169997</v>
       </c>
       <c r="R23" t="n">
-        <v>2440.915701169999</v>
+        <v>2440.915701169997</v>
       </c>
       <c r="S23" t="n">
-        <v>2429.124261901594</v>
+        <v>2429.124261901593</v>
       </c>
       <c r="T23" t="n">
-        <v>2380.202851733847</v>
+        <v>2380.202851733846</v>
       </c>
       <c r="U23" t="n">
-        <v>2300.755051549083</v>
+        <v>2300.755051549082</v>
       </c>
       <c r="V23" t="n">
         <v>2139.213313546265</v>
       </c>
       <c r="W23" t="n">
-        <v>1952.115919505108</v>
+        <v>1952.115919505107</v>
       </c>
       <c r="X23" t="n">
-        <v>1745.523315127843</v>
+        <v>1745.523315127842</v>
       </c>
       <c r="Y23" t="n">
         <v>1527.418995804922</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>859.7487892155051</v>
+        <v>801.582800469735</v>
       </c>
       <c r="C24" t="n">
-        <v>698.0451164564598</v>
+        <v>639.8791277106898</v>
       </c>
       <c r="D24" t="n">
-        <v>559.2064794466719</v>
+        <v>501.0404907009018</v>
       </c>
       <c r="E24" t="n">
-        <v>412.1784695035431</v>
+        <v>354.0124807577731</v>
       </c>
       <c r="F24" t="n">
-        <v>277.4846714534174</v>
+        <v>219.3186827076474</v>
       </c>
       <c r="G24" t="n">
-        <v>148.7561714767019</v>
+        <v>90.59018273093199</v>
       </c>
       <c r="H24" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339994</v>
       </c>
       <c r="I24" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339994</v>
       </c>
       <c r="J24" t="n">
         <v>109.0724605565061</v>
       </c>
       <c r="K24" t="n">
-        <v>338.5630131166948</v>
+        <v>338.5630131166947</v>
       </c>
       <c r="L24" t="n">
-        <v>592.5492016912079</v>
+        <v>592.5492016912066</v>
       </c>
       <c r="M24" t="n">
-        <v>1077.582555201434</v>
+        <v>1077.582555201433</v>
       </c>
       <c r="N24" t="n">
-        <v>1588.848201324556</v>
+        <v>1588.848201324555</v>
       </c>
       <c r="O24" t="n">
-        <v>1981.048152108707</v>
+        <v>1981.048152108706</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.144071384404</v>
+        <v>2283.144071384403</v>
       </c>
       <c r="Q24" t="n">
-        <v>2440.915701169999</v>
+        <v>2440.915701169997</v>
       </c>
       <c r="R24" t="n">
-        <v>2381.131432264944</v>
+        <v>2381.131432264943</v>
       </c>
       <c r="S24" t="n">
-        <v>2228.331945277685</v>
+        <v>2228.331945277683</v>
       </c>
       <c r="T24" t="n">
-        <v>2097.812830189439</v>
+        <v>2039.646841443668</v>
       </c>
       <c r="U24" t="n">
-        <v>1879.318037787749</v>
+        <v>1821.152049041978</v>
       </c>
       <c r="V24" t="n">
-        <v>1650.922415236083</v>
+        <v>1592.756426490312</v>
       </c>
       <c r="W24" t="n">
-        <v>1409.606546469392</v>
+        <v>1351.440557723623</v>
       </c>
       <c r="X24" t="n">
-        <v>1211.689558347187</v>
+        <v>1153.523569601417</v>
       </c>
       <c r="Y24" t="n">
-        <v>1019.168231996766</v>
+        <v>961.002243250996</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339994</v>
       </c>
       <c r="C25" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339994</v>
       </c>
       <c r="D25" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339994</v>
       </c>
       <c r="E25" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339994</v>
       </c>
       <c r="F25" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339994</v>
       </c>
       <c r="G25" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339994</v>
       </c>
       <c r="H25" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339994</v>
       </c>
       <c r="I25" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339994</v>
       </c>
       <c r="J25" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339994</v>
       </c>
       <c r="K25" t="n">
-        <v>82.42250176804339</v>
+        <v>82.42250176804336</v>
       </c>
       <c r="L25" t="n">
         <v>183.0295811683029</v>
@@ -6160,37 +6160,37 @@
         <v>419.445429045505</v>
       </c>
       <c r="O25" t="n">
-        <v>517.9090755411947</v>
+        <v>517.9090755411946</v>
       </c>
       <c r="P25" t="n">
-        <v>580.8775592693326</v>
+        <v>580.8775592693324</v>
       </c>
       <c r="Q25" t="n">
-        <v>580.8775592693326</v>
+        <v>580.8775592693324</v>
       </c>
       <c r="R25" t="n">
-        <v>580.8775592693326</v>
+        <v>563.1316780259053</v>
       </c>
       <c r="S25" t="n">
-        <v>542.6053327742617</v>
+        <v>524.8594515308346</v>
       </c>
       <c r="T25" t="n">
-        <v>484.8639156911821</v>
+        <v>467.1180344477551</v>
       </c>
       <c r="U25" t="n">
-        <v>373.1112122815236</v>
+        <v>355.3653310380967</v>
       </c>
       <c r="V25" t="n">
-        <v>287.8134439411878</v>
+        <v>270.067562697761</v>
       </c>
       <c r="W25" t="n">
-        <v>177.0945785598286</v>
+        <v>159.3486973164018</v>
       </c>
       <c r="X25" t="n">
-        <v>121.2796505564459</v>
+        <v>103.5337693130193</v>
       </c>
       <c r="Y25" t="n">
-        <v>74.68202784996465</v>
+        <v>56.93614660653806</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1730.14646937623</v>
+        <v>1372.404442476375</v>
       </c>
       <c r="C26" t="n">
-        <v>1462.788635464803</v>
+        <v>1105.046608564949</v>
       </c>
       <c r="D26" t="n">
-        <v>1204.540595447793</v>
+        <v>846.7985685479387</v>
       </c>
       <c r="E26" t="n">
-        <v>924.3308003096665</v>
+        <v>579.6014122774105</v>
       </c>
       <c r="F26" t="n">
-        <v>624.7555343756034</v>
+        <v>579.6014122774105</v>
       </c>
       <c r="G26" t="n">
-        <v>323.2274725855577</v>
+        <v>278.0733504873649</v>
       </c>
       <c r="H26" t="n">
-        <v>104.9821229386328</v>
+        <v>59.8280008404406</v>
       </c>
       <c r="I26" t="n">
-        <v>59.82800084044059</v>
+        <v>59.8280008404406</v>
       </c>
       <c r="J26" t="n">
-        <v>194.6777111137729</v>
+        <v>244.1224089663729</v>
       </c>
       <c r="K26" t="n">
-        <v>547.1139470116824</v>
+        <v>596.5586448642823</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.295183949755</v>
+        <v>1056.739881802355</v>
       </c>
       <c r="M26" t="n">
-        <v>1512.83021405597</v>
+        <v>1562.27491190857</v>
       </c>
       <c r="N26" t="n">
-        <v>2003.457436596812</v>
+        <v>2052.902134449412</v>
       </c>
       <c r="O26" t="n">
-        <v>2420.757884922773</v>
+        <v>2470.202582775373</v>
       </c>
       <c r="P26" t="n">
-        <v>2761.210645231953</v>
+        <v>2761.210645231954</v>
       </c>
       <c r="Q26" t="n">
         <v>2967.938762771617</v>
@@ -6254,22 +6254,22 @@
         <v>2918.74699140815</v>
       </c>
       <c r="T26" t="n">
-        <v>2918.74699140815</v>
+        <v>2808.963969894928</v>
       </c>
       <c r="U26" t="n">
-        <v>2778.43757987791</v>
+        <v>2668.654558364688</v>
       </c>
       <c r="V26" t="n">
-        <v>2556.034230529618</v>
+        <v>2446.251209016396</v>
       </c>
       <c r="W26" t="n">
-        <v>2556.034230529618</v>
+        <v>2198.292203629764</v>
       </c>
       <c r="X26" t="n">
-        <v>2288.580014806878</v>
+        <v>1930.837987907023</v>
       </c>
       <c r="Y26" t="n">
-        <v>2009.614084138482</v>
+        <v>1651.872057238628</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>939.1407613424846</v>
+        <v>924.4281438823803</v>
       </c>
       <c r="C27" t="n">
-        <v>777.4370885834393</v>
+        <v>762.724471123335</v>
       </c>
       <c r="D27" t="n">
-        <v>638.5984515736513</v>
+        <v>623.885834113547</v>
       </c>
       <c r="E27" t="n">
-        <v>491.5704416305226</v>
+        <v>476.8578241704183</v>
       </c>
       <c r="F27" t="n">
         <v>356.8766435803969</v>
@@ -6300,7 +6300,7 @@
         <v>128.2102861503796</v>
       </c>
       <c r="I27" t="n">
-        <v>59.82800084044059</v>
+        <v>59.8280008404406</v>
       </c>
       <c r="J27" t="n">
         <v>120.0821473735467</v>
@@ -6327,28 +6327,28 @@
         <v>2563.761044582642</v>
       </c>
       <c r="R27" t="n">
-        <v>2518.689393137692</v>
+        <v>2503.976775677588</v>
       </c>
       <c r="S27" t="n">
-        <v>2365.889906150433</v>
+        <v>2351.177288690328</v>
       </c>
       <c r="T27" t="n">
-        <v>2177.204802316418</v>
+        <v>2162.492184856314</v>
       </c>
       <c r="U27" t="n">
-        <v>1958.710009914728</v>
+        <v>1943.997392454624</v>
       </c>
       <c r="V27" t="n">
-        <v>1730.314387363062</v>
+        <v>1715.601769902958</v>
       </c>
       <c r="W27" t="n">
-        <v>1488.998518596372</v>
+        <v>1474.285901136268</v>
       </c>
       <c r="X27" t="n">
-        <v>1291.081530474167</v>
+        <v>1276.368913014062</v>
       </c>
       <c r="Y27" t="n">
-        <v>1098.560204123746</v>
+        <v>1083.847586663641</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>357.4694977237338</v>
+        <v>357.4694977237345</v>
       </c>
       <c r="C28" t="n">
-        <v>302.4294529411806</v>
+        <v>302.4294529411812</v>
       </c>
       <c r="D28" t="n">
-        <v>263.9334845247097</v>
+        <v>263.9334845247104</v>
       </c>
       <c r="E28" t="n">
-        <v>226.5003950417949</v>
+        <v>226.5003950417956</v>
       </c>
       <c r="F28" t="n">
-        <v>188.5956648233384</v>
+        <v>188.5956648233391</v>
       </c>
       <c r="G28" t="n">
-        <v>134.2518409469546</v>
+        <v>134.2518409469556</v>
       </c>
       <c r="H28" t="n">
-        <v>89.45512048199521</v>
+        <v>89.45512048199566</v>
       </c>
       <c r="I28" t="n">
-        <v>59.82800084044059</v>
+        <v>59.8280008404406</v>
       </c>
       <c r="J28" t="n">
         <v>113.261765155598</v>
@@ -6388,22 +6388,22 @@
         <v>259.161816753368</v>
       </c>
       <c r="L28" t="n">
-        <v>472.0647600067539</v>
+        <v>472.0647600067542</v>
       </c>
       <c r="M28" t="n">
-        <v>702.3541299874821</v>
+        <v>702.3541299874826</v>
       </c>
       <c r="N28" t="n">
-        <v>933.0723355902089</v>
+        <v>933.0723355902098</v>
       </c>
       <c r="O28" t="n">
-        <v>1143.831845939025</v>
+        <v>1143.831845939026</v>
       </c>
       <c r="P28" t="n">
-        <v>1319.09619352029</v>
+        <v>1319.096193520291</v>
       </c>
       <c r="Q28" t="n">
-        <v>1393.621609119897</v>
+        <v>1393.621609119898</v>
       </c>
       <c r="R28" t="n">
         <v>1358.675752490042</v>
@@ -6415,19 +6415,19 @@
         <v>1140.938886220941</v>
       </c>
       <c r="U28" t="n">
-        <v>968.3245714658073</v>
+        <v>968.3245714658078</v>
       </c>
       <c r="V28" t="n">
-        <v>822.1651917799962</v>
+        <v>822.1651917799967</v>
       </c>
       <c r="W28" t="n">
-        <v>650.5847150531617</v>
+        <v>650.5847150531622</v>
       </c>
       <c r="X28" t="n">
-        <v>533.9081757043039</v>
+        <v>533.9081757043044</v>
       </c>
       <c r="Y28" t="n">
-        <v>426.4489416523472</v>
+        <v>426.448941652348</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1695.149926133716</v>
+        <v>1385.417081343974</v>
       </c>
       <c r="C29" t="n">
-        <v>1427.79209222229</v>
+        <v>1118.059247432547</v>
       </c>
       <c r="D29" t="n">
-        <v>1169.54405220528</v>
+        <v>859.8112074155374</v>
       </c>
       <c r="E29" t="n">
-        <v>889.3342570671531</v>
+        <v>579.6014122774106</v>
       </c>
       <c r="F29" t="n">
-        <v>589.7589911330898</v>
+        <v>579.6014122774106</v>
       </c>
       <c r="G29" t="n">
-        <v>288.2309293430442</v>
+        <v>278.073350487365</v>
       </c>
       <c r="H29" t="n">
-        <v>118.0692748758782</v>
+        <v>59.8280008404406</v>
       </c>
       <c r="I29" t="n">
-        <v>59.82800084044059</v>
+        <v>59.8280008404406</v>
       </c>
       <c r="J29" t="n">
         <v>244.1224089663729</v>
       </c>
       <c r="K29" t="n">
-        <v>547.1139470116824</v>
+        <v>570.5752262620957</v>
       </c>
       <c r="L29" t="n">
-        <v>1007.295183949755</v>
+        <v>1030.756463200169</v>
       </c>
       <c r="M29" t="n">
-        <v>1512.83021405597</v>
+        <v>1536.291493306383</v>
       </c>
       <c r="N29" t="n">
-        <v>2003.457436596812</v>
+        <v>2026.918715847225</v>
       </c>
       <c r="O29" t="n">
-        <v>2420.757884922773</v>
+        <v>2444.219164173186</v>
       </c>
       <c r="P29" t="n">
-        <v>2761.210645231953</v>
+        <v>2784.671924482366</v>
       </c>
       <c r="Q29" t="n">
-        <v>2967.938762771617</v>
+        <v>2991.40004202203</v>
       </c>
       <c r="R29" t="n">
         <v>2991.40004202203</v>
       </c>
       <c r="S29" t="n">
-        <v>2991.40004202203</v>
+        <v>2918.74699140815</v>
       </c>
       <c r="T29" t="n">
-        <v>2991.40004202203</v>
+        <v>2808.963969894928</v>
       </c>
       <c r="U29" t="n">
-        <v>2991.40004202203</v>
+        <v>2668.654558364688</v>
       </c>
       <c r="V29" t="n">
-        <v>2768.996692673737</v>
+        <v>2446.251209016396</v>
       </c>
       <c r="W29" t="n">
-        <v>2521.037687287105</v>
+        <v>2198.292203629763</v>
       </c>
       <c r="X29" t="n">
-        <v>2253.583471564365</v>
+        <v>1930.837987907023</v>
       </c>
       <c r="Y29" t="n">
-        <v>1974.617540895969</v>
+        <v>1664.884696106226</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>939.1407613424846</v>
+        <v>924.4281438823803</v>
       </c>
       <c r="C30" t="n">
-        <v>777.4370885834393</v>
+        <v>762.724471123335</v>
       </c>
       <c r="D30" t="n">
-        <v>638.5984515736513</v>
+        <v>623.885834113547</v>
       </c>
       <c r="E30" t="n">
-        <v>491.5704416305226</v>
+        <v>476.8578241704183</v>
       </c>
       <c r="F30" t="n">
-        <v>356.8766435803969</v>
+        <v>342.1640261202926</v>
       </c>
       <c r="G30" t="n">
-        <v>228.1481436036815</v>
+        <v>213.4355261435772</v>
       </c>
       <c r="H30" t="n">
-        <v>128.2102861503796</v>
+        <v>113.4976686902753</v>
       </c>
       <c r="I30" t="n">
-        <v>59.82800084044059</v>
+        <v>59.8280008404406</v>
       </c>
       <c r="J30" t="n">
         <v>120.0821473735467</v>
@@ -6567,25 +6567,25 @@
         <v>2503.976775677588</v>
       </c>
       <c r="S30" t="n">
-        <v>2365.889906150433</v>
+        <v>2351.177288690328</v>
       </c>
       <c r="T30" t="n">
-        <v>2177.204802316418</v>
+        <v>2162.492184856314</v>
       </c>
       <c r="U30" t="n">
-        <v>1958.710009914728</v>
+        <v>1943.997392454624</v>
       </c>
       <c r="V30" t="n">
-        <v>1730.314387363062</v>
+        <v>1715.601769902958</v>
       </c>
       <c r="W30" t="n">
-        <v>1488.998518596372</v>
+        <v>1474.285901136268</v>
       </c>
       <c r="X30" t="n">
-        <v>1291.081530474167</v>
+        <v>1276.368913014062</v>
       </c>
       <c r="Y30" t="n">
-        <v>1098.560204123746</v>
+        <v>1083.847586663641</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>357.4694977237336</v>
+        <v>357.4694977237341</v>
       </c>
       <c r="C31" t="n">
-        <v>302.4294529411802</v>
+        <v>302.4294529411809</v>
       </c>
       <c r="D31" t="n">
-        <v>263.9334845247095</v>
+        <v>263.9334845247101</v>
       </c>
       <c r="E31" t="n">
-        <v>226.5003950417947</v>
+        <v>226.5003950417956</v>
       </c>
       <c r="F31" t="n">
-        <v>188.5956648233382</v>
+        <v>188.5956648233392</v>
       </c>
       <c r="G31" t="n">
-        <v>134.2518409469546</v>
+        <v>134.2518409469555</v>
       </c>
       <c r="H31" t="n">
-        <v>89.45512048199521</v>
+        <v>89.45512048199569</v>
       </c>
       <c r="I31" t="n">
-        <v>59.82800084044059</v>
+        <v>59.8280008404406</v>
       </c>
       <c r="J31" t="n">
-        <v>113.2617651555977</v>
+        <v>113.261765155598</v>
       </c>
       <c r="K31" t="n">
-        <v>259.1618167533677</v>
+        <v>259.1618167533681</v>
       </c>
       <c r="L31" t="n">
-        <v>472.0647600067534</v>
+        <v>472.0647600067542</v>
       </c>
       <c r="M31" t="n">
-        <v>702.3541299874817</v>
+        <v>702.3541299874826</v>
       </c>
       <c r="N31" t="n">
-        <v>933.0723355902085</v>
+        <v>933.0723355902096</v>
       </c>
       <c r="O31" t="n">
-        <v>1143.831845939025</v>
+        <v>1143.831845939026</v>
       </c>
       <c r="P31" t="n">
-        <v>1319.096193520289</v>
+        <v>1319.09619352029</v>
       </c>
       <c r="Q31" t="n">
-        <v>1393.621609119897</v>
+        <v>1393.621609119898</v>
       </c>
       <c r="R31" t="n">
-        <v>1358.675752490041</v>
+        <v>1358.675752490042</v>
       </c>
       <c r="S31" t="n">
-        <v>1259.541914649495</v>
+        <v>1259.541914649496</v>
       </c>
       <c r="T31" t="n">
         <v>1140.938886220941</v>
       </c>
       <c r="U31" t="n">
-        <v>968.3245714658068</v>
+        <v>968.3245714658076</v>
       </c>
       <c r="V31" t="n">
-        <v>822.1651917799958</v>
+        <v>822.1651917799966</v>
       </c>
       <c r="W31" t="n">
-        <v>650.5847150531613</v>
+        <v>650.5847150531621</v>
       </c>
       <c r="X31" t="n">
-        <v>533.9081757043035</v>
+        <v>533.9081757043042</v>
       </c>
       <c r="Y31" t="n">
-        <v>426.4489416523471</v>
+        <v>426.4489416523477</v>
       </c>
     </row>
     <row r="32">
@@ -6683,61 +6683,61 @@
         <v>1060.508032799334</v>
       </c>
       <c r="E32" t="n">
-        <v>811.3355268671172</v>
+        <v>811.335526867117</v>
       </c>
       <c r="F32" t="n">
-        <v>542.7975501389639</v>
+        <v>542.7975501389637</v>
       </c>
       <c r="G32" t="n">
         <v>272.3067775548282</v>
       </c>
       <c r="H32" t="n">
-        <v>85.09871711381412</v>
+        <v>85.098717113814</v>
       </c>
       <c r="I32" t="n">
-        <v>57.8947322842865</v>
+        <v>57.89473228428648</v>
       </c>
       <c r="J32" t="n">
-        <v>272.6087875609312</v>
+        <v>272.6087875609313</v>
       </c>
       <c r="K32" t="n">
-        <v>655.464670609553</v>
+        <v>655.4646706095531</v>
       </c>
       <c r="L32" t="n">
-        <v>1146.065554698338</v>
+        <v>1013.544895245454</v>
       </c>
       <c r="M32" t="n">
-        <v>1682.020231955265</v>
+        <v>1406.784061498542</v>
       </c>
       <c r="N32" t="n">
-        <v>2203.06710164682</v>
+        <v>1927.830931190097</v>
       </c>
       <c r="O32" t="n">
-        <v>2572.147464071735</v>
+        <v>2375.55102666677</v>
       </c>
       <c r="P32" t="n">
-        <v>2800.304360527788</v>
+        <v>2746.423434126662</v>
       </c>
       <c r="Q32" t="n">
-        <v>2894.736614214325</v>
+        <v>2840.855687813199</v>
       </c>
       <c r="R32" t="n">
-        <v>2894.736614214325</v>
+        <v>2894.736614214324</v>
       </c>
       <c r="S32" t="n">
-        <v>2853.120852806356</v>
+        <v>2853.120852806355</v>
       </c>
       <c r="T32" t="n">
-        <v>2774.375120499044</v>
+        <v>2774.375120499043</v>
       </c>
       <c r="U32" t="n">
-        <v>2665.102998174714</v>
+        <v>2665.102998174713</v>
       </c>
       <c r="V32" t="n">
-        <v>2473.736938032332</v>
+        <v>2473.736938032331</v>
       </c>
       <c r="W32" t="n">
-        <v>2256.815221851609</v>
+        <v>2256.815221851608</v>
       </c>
       <c r="X32" t="n">
         <v>2020.398295334778</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>937.2074927863306</v>
+        <v>922.4948753262258</v>
       </c>
       <c r="C33" t="n">
-        <v>775.5038200272853</v>
+        <v>760.7912025671806</v>
       </c>
       <c r="D33" t="n">
-        <v>636.6651830174974</v>
+        <v>621.9525655573926</v>
       </c>
       <c r="E33" t="n">
-        <v>489.6371730743685</v>
+        <v>474.9245556142639</v>
       </c>
       <c r="F33" t="n">
-        <v>354.9433750242429</v>
+        <v>340.2307575641382</v>
       </c>
       <c r="G33" t="n">
-        <v>226.2148750475275</v>
+        <v>211.5022575874228</v>
       </c>
       <c r="H33" t="n">
         <v>126.2770175942255</v>
       </c>
       <c r="I33" t="n">
-        <v>57.8947322842865</v>
+        <v>57.89473228428648</v>
       </c>
       <c r="J33" t="n">
         <v>118.1488788173926</v>
@@ -6783,16 +6783,16 @@
         <v>347.6394313775813</v>
       </c>
       <c r="L33" t="n">
-        <v>713.461276547697</v>
+        <v>713.4612765476969</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.494630057924</v>
+        <v>1198.494630057923</v>
       </c>
       <c r="N33" t="n">
-        <v>1709.760276181046</v>
+        <v>1709.760276181045</v>
       </c>
       <c r="O33" t="n">
-        <v>2101.960226965197</v>
+        <v>2101.960226965196</v>
       </c>
       <c r="P33" t="n">
         <v>2404.056146240894</v>
@@ -6801,28 +6801,28 @@
         <v>2561.827776026488</v>
       </c>
       <c r="R33" t="n">
-        <v>2516.756124581538</v>
+        <v>2502.043507121433</v>
       </c>
       <c r="S33" t="n">
-        <v>2363.956637594279</v>
+        <v>2349.244020134174</v>
       </c>
       <c r="T33" t="n">
-        <v>2175.271533760264</v>
+        <v>2160.558916300159</v>
       </c>
       <c r="U33" t="n">
-        <v>1956.776741358574</v>
+        <v>1942.064123898469</v>
       </c>
       <c r="V33" t="n">
-        <v>1728.381118806908</v>
+        <v>1713.668501346803</v>
       </c>
       <c r="W33" t="n">
-        <v>1487.065250040218</v>
+        <v>1472.352632580113</v>
       </c>
       <c r="X33" t="n">
-        <v>1289.148261918013</v>
+        <v>1274.435644457908</v>
       </c>
       <c r="Y33" t="n">
-        <v>1096.626935567592</v>
+        <v>1081.914318107487</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>139.6853742905654</v>
+        <v>139.6853742905649</v>
       </c>
       <c r="C34" t="n">
-        <v>115.6826187139221</v>
+        <v>115.6826187139216</v>
       </c>
       <c r="D34" t="n">
-        <v>108.2239395033612</v>
+        <v>108.2239395033608</v>
       </c>
       <c r="E34" t="n">
-        <v>101.8281392263564</v>
+        <v>101.8281392263561</v>
       </c>
       <c r="F34" t="n">
-        <v>94.96069821380991</v>
+        <v>94.96069821380972</v>
       </c>
       <c r="G34" t="n">
-        <v>71.6541635433363</v>
+        <v>71.6541635433362</v>
       </c>
       <c r="H34" t="n">
-        <v>57.8947322842865</v>
+        <v>57.89473228428648</v>
       </c>
       <c r="I34" t="n">
-        <v>57.8947322842865</v>
+        <v>57.89473228428648</v>
       </c>
       <c r="J34" t="n">
-        <v>57.8947322842865</v>
+        <v>57.89473228428648</v>
       </c>
       <c r="K34" t="n">
-        <v>112.6158033245718</v>
+        <v>234.214431032769</v>
       </c>
       <c r="L34" t="n">
-        <v>213.2228827248313</v>
+        <v>334.8215104330285</v>
       </c>
       <c r="M34" t="n">
-        <v>331.2163888524331</v>
+        <v>452.8150165606302</v>
       </c>
       <c r="N34" t="n">
-        <v>592.3542416058724</v>
+        <v>592.354241605871</v>
       </c>
       <c r="O34" t="n">
-        <v>833.533399105401</v>
+        <v>833.5333991053998</v>
       </c>
       <c r="P34" t="n">
-        <v>896.5018828335388</v>
+        <v>896.5018828335376</v>
       </c>
       <c r="Q34" t="n">
-        <v>896.5018828335388</v>
+        <v>896.5018828335376</v>
       </c>
       <c r="R34" t="n">
-        <v>892.5933154095934</v>
+        <v>892.5933154095923</v>
       </c>
       <c r="S34" t="n">
-        <v>824.4967667749573</v>
+        <v>824.4967667749563</v>
       </c>
       <c r="T34" t="n">
-        <v>736.9310275523126</v>
+        <v>736.9310275523115</v>
       </c>
       <c r="U34" t="n">
-        <v>595.3540020030888</v>
+        <v>595.3540020030879</v>
       </c>
       <c r="V34" t="n">
-        <v>480.2319115231878</v>
+        <v>480.2319115231869</v>
       </c>
       <c r="W34" t="n">
-        <v>339.6887240022633</v>
+        <v>339.6887240022625</v>
       </c>
       <c r="X34" t="n">
-        <v>254.0494738593154</v>
+        <v>254.0494738593147</v>
       </c>
       <c r="Y34" t="n">
-        <v>177.6275290132689</v>
+        <v>177.6275290132683</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>51.10067436208575</v>
       </c>
       <c r="J35" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K35" t="n">
-        <v>692.175139661739</v>
+        <v>479.0485364810485</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.060512746685</v>
+        <v>826.9339095659948</v>
       </c>
       <c r="M35" t="n">
-        <v>1433.299678999773</v>
+        <v>1220.173075819083</v>
       </c>
       <c r="N35" t="n">
-        <v>1811.631037687489</v>
+        <v>1598.504434506798</v>
       </c>
       <c r="O35" t="n">
-        <v>2116.635622160323</v>
+        <v>2067.976793470665</v>
       </c>
       <c r="P35" t="n">
-        <v>2344.792518616376</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q35" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R35" t="n">
         <v>2555.033718104287</v>
@@ -7005,10 +7005,10 @@
         <v>333.4366996419378</v>
       </c>
       <c r="G36" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H36" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I36" t="n">
         <v>51.10067436208575</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287319</v>
       </c>
       <c r="C37" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="D37" t="n">
         <v>52.21328648670347</v>
@@ -7096,49 +7096,49 @@
         <v>51.10067436208575</v>
       </c>
       <c r="K37" t="n">
-        <v>130.9236227683826</v>
+        <v>84.70486210672917</v>
       </c>
       <c r="L37" t="n">
-        <v>231.5307021686421</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M37" t="n">
-        <v>349.5242082962438</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N37" t="n">
-        <v>467.9465500458442</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O37" t="n">
-        <v>566.4101965415339</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S37" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T37" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U37" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V37" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W37" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X37" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="38">
@@ -7175,25 +7175,25 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K38" t="n">
-        <v>527.7073651707066</v>
+        <v>479.0485364810483</v>
       </c>
       <c r="L38" t="n">
-        <v>875.5927382556529</v>
+        <v>826.9339095659946</v>
       </c>
       <c r="M38" t="n">
-        <v>1268.831904508741</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N38" t="n">
-        <v>1811.631037687489</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O38" t="n">
-        <v>2156.811378073378</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P38" t="n">
-        <v>2384.968274529432</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q38" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C39" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D39" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E39" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F39" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G39" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H39" t="n">
         <v>119.4829596720247</v>
@@ -7275,28 +7275,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S39" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T39" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U39" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V39" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W39" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X39" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y39" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F40" t="n">
         <v>52.21328648670347</v>
@@ -7327,55 +7327,55 @@
         <v>51.10067436208574</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208574</v>
+        <v>74.23504503930334</v>
       </c>
       <c r="J40" t="n">
-        <v>51.10067436208574</v>
+        <v>74.23504503930334</v>
       </c>
       <c r="K40" t="n">
-        <v>84.70486210672915</v>
+        <v>107.8392327839468</v>
       </c>
       <c r="L40" t="n">
-        <v>185.3119415069887</v>
+        <v>208.4463121842062</v>
       </c>
       <c r="M40" t="n">
-        <v>303.3054476345904</v>
+        <v>326.439818311808</v>
       </c>
       <c r="N40" t="n">
-        <v>421.7277893841908</v>
+        <v>444.8621600614084</v>
       </c>
       <c r="O40" t="n">
-        <v>520.1914358798805</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P40" t="n">
-        <v>583.1599196080183</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S40" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T40" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W40" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="41">
@@ -7406,28 +7406,28 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J41" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K41" t="n">
-        <v>363.2395906796742</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L41" t="n">
-        <v>875.5927382556528</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M41" t="n">
-        <v>1384.640850310115</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N41" t="n">
-        <v>1762.97220899783</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O41" t="n">
-        <v>2067.976793470664</v>
+        <v>1952.16784766929</v>
       </c>
       <c r="P41" t="n">
-        <v>2460.60146441775</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q41" t="n">
         <v>2555.033718104287</v>
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C42" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D42" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E42" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F42" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G42" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H42" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J42" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L42" t="n">
         <v>706.6672186254962</v>
@@ -7512,28 +7512,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S42" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U42" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V42" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W42" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X42" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y42" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C43" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D43" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E43" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="F43" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G43" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H43" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I43" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J43" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K43" t="n">
-        <v>84.70486210672915</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L43" t="n">
         <v>185.3119415069887</v>
       </c>
       <c r="M43" t="n">
-        <v>349.5242082962438</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N43" t="n">
-        <v>467.9465500458442</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O43" t="n">
-        <v>566.4101965415339</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P43" t="n">
-        <v>629.3786802696717</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q43" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R43" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S43" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T43" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U43" t="n">
-        <v>398.7211345007349</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V43" t="n">
-        <v>305.7929665666898</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W43" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X43" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="44">
@@ -7628,31 +7628,31 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D44" t="n">
-        <v>942.7443621478541</v>
+        <v>942.7443621478542</v>
       </c>
       <c r="E44" t="n">
-        <v>715.7657787614932</v>
+        <v>715.7657787614933</v>
       </c>
       <c r="F44" t="n">
-        <v>469.4217245791958</v>
+        <v>469.4217245791961</v>
       </c>
       <c r="G44" t="n">
-        <v>221.124874540916</v>
+        <v>221.1248745409168</v>
       </c>
       <c r="H44" t="n">
-        <v>56.11073664575748</v>
+        <v>56.11073664575743</v>
       </c>
       <c r="I44" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K44" t="n">
-        <v>363.2395906796742</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L44" t="n">
-        <v>875.5927382556528</v>
+        <v>1040.060512746685</v>
       </c>
       <c r="M44" t="n">
         <v>1433.299678999773</v>
@@ -7661,13 +7661,13 @@
         <v>1811.631037687489</v>
       </c>
       <c r="O44" t="n">
-        <v>2116.635622160322</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P44" t="n">
-        <v>2384.968274529432</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q44" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
@@ -7676,10 +7676,10 @@
         <v>2535.611879242173</v>
       </c>
       <c r="T44" t="n">
-        <v>2479.060069480718</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U44" t="n">
-        <v>2391.981869702244</v>
+        <v>2391.981869702243</v>
       </c>
       <c r="V44" t="n">
         <v>2222.809732105717</v>
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C45" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D45" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E45" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F45" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G45" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H45" t="n">
         <v>119.4829596720247</v>
       </c>
       <c r="I45" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J45" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K45" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L45" t="n">
         <v>706.6672186254962</v>
@@ -7749,28 +7749,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S45" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U45" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V45" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W45" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X45" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y45" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.02211951749095</v>
+        <v>54.02211951749085</v>
       </c>
       <c r="C46" t="n">
-        <v>52.21328648670348</v>
+        <v>52.21328648670344</v>
       </c>
       <c r="D46" t="n">
-        <v>52.21328648670348</v>
+        <v>52.21328648670344</v>
       </c>
       <c r="E46" t="n">
-        <v>52.21328648670348</v>
+        <v>52.21328648670344</v>
       </c>
       <c r="F46" t="n">
-        <v>52.21328648670348</v>
+        <v>52.21328648670344</v>
       </c>
       <c r="G46" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H46" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I46" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J46" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K46" t="n">
-        <v>84.70486210672914</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L46" t="n">
-        <v>231.5307021686424</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M46" t="n">
-        <v>349.5242082962442</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N46" t="n">
-        <v>467.9465500458446</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O46" t="n">
-        <v>566.4101965415342</v>
+        <v>566.4101965415337</v>
       </c>
       <c r="P46" t="n">
-        <v>629.378680269672</v>
+        <v>629.3786802696715</v>
       </c>
       <c r="Q46" t="n">
-        <v>629.378680269672</v>
+        <v>629.3786802696715</v>
       </c>
       <c r="R46" t="n">
-        <v>629.378680269672</v>
+        <v>629.3786802696715</v>
       </c>
       <c r="S46" t="n">
-        <v>583.4760541808919</v>
+        <v>583.4760541808913</v>
       </c>
       <c r="T46" t="n">
-        <v>518.1042375041029</v>
+        <v>518.1042375041025</v>
       </c>
       <c r="U46" t="n">
-        <v>398.721134500735</v>
+        <v>398.7211345007346</v>
       </c>
       <c r="V46" t="n">
-        <v>305.7929665666899</v>
+        <v>305.7929665666895</v>
       </c>
       <c r="W46" t="n">
-        <v>187.4437015916212</v>
+        <v>187.4437015916209</v>
       </c>
       <c r="X46" t="n">
-        <v>123.9983739945292</v>
+        <v>123.998373994529</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.77035169433853</v>
+        <v>69.77035169433839</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>398.4278090912565</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
         <v>542.9595789155856</v>
@@ -7991,13 +7991,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
-        <v>495.0402356415689</v>
+        <v>494.7393209294321</v>
       </c>
       <c r="P2" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8055,7 +8055,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
         <v>343.8048081163522</v>
@@ -8064,16 +8064,16 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>605.4165828749999</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
-        <v>139.083967957848</v>
+        <v>607.8524853807721</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>414.0015992319183</v>
+        <v>374.302987846488</v>
       </c>
       <c r="Q3" t="n">
         <v>273.1004740566038</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K5" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
-        <v>447.2725493685646</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M5" t="n">
         <v>584.3675935406823</v>
@@ -8231,7 +8231,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>418.3383206229274</v>
+        <v>395.3770933716679</v>
       </c>
       <c r="Q5" t="n">
         <v>276.0094878578761</v>
@@ -8292,19 +8292,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>307.5939301258962</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>607.8524853807725</v>
+        <v>139.0839679578464</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8532,13 +8532,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>156.1797194573845</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
         <v>623.1450866466196</v>
@@ -8547,7 +8547,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>414.0015992319183</v>
+        <v>196.5733747639883</v>
       </c>
       <c r="Q9" t="n">
         <v>273.1004740566038</v>
@@ -8766,10 +8766,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>291.7022726996892</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8781,7 +8781,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>512.0210150597484</v>
+        <v>399.0557053672195</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
@@ -9003,10 +9003,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>291.7022726996892</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466196</v>
+        <v>510.1797769540909</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>160.1351643640756</v>
+        <v>160.1351643640747</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9480,10 +9480,10 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>230.8394984238244</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>369.1271392019678</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
@@ -9720,7 +9720,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>369.1271392019692</v>
+        <v>369.1271392019678</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
@@ -10911,13 +10911,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466196</v>
+        <v>623.1450866466193</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>414.0015992319179</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
         <v>273.1004740566038</v>
@@ -11157,7 +11157,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566032</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11382,7 +11382,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>605.416582875</v>
       </c>
       <c r="N45" t="n">
         <v>623.1450866466196</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>152.4643108807364</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>28.70080290975727</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>138.9063174149372</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>245.4794153327663</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H14" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>57.65886129508321</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>33.83485637941858</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>220.1793158548093</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>264.7796735655128</v>
+        <v>60.59606061216726</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -24449,10 +24449,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>12.88251247892231</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>12.95628041787293</v>
+        <v>57.6588612950832</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,7 +24494,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24503,7 +24503,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>245.4794153327662</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24689,16 +24689,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>296.5795132747227</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>47.60285822796115</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>57.65886129508323</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,13 +24728,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>71.92652010774083</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>138.9063174149371</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24746,7 +24746,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>12.88251247892316</v>
       </c>
     </row>
     <row r="30">
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>7.460698725481052e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>770257.1158631208</v>
+        <v>770257.1158631206</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>770257.1158631208</v>
+        <v>770257.1158631206</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>701611.508772744</v>
+        <v>701611.5087727437</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>743300.9368499512</v>
+        <v>743300.9368499513</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>594908.6468829908</v>
+        <v>594908.6468829913</v>
       </c>
       <c r="C2" t="n">
+        <v>594908.6468829907</v>
+      </c>
+      <c r="D2" t="n">
         <v>594908.6468829911</v>
-      </c>
-      <c r="D2" t="n">
-        <v>594908.6468829908</v>
       </c>
       <c r="E2" t="n">
         <v>539313.5698676105</v>
       </c>
       <c r="F2" t="n">
-        <v>539313.5698676106</v>
+        <v>539313.5698676105</v>
       </c>
       <c r="G2" t="n">
+        <v>594908.6468829911</v>
+      </c>
+      <c r="H2" t="n">
+        <v>594908.6468829911</v>
+      </c>
+      <c r="I2" t="n">
+        <v>594908.6468829911</v>
+      </c>
+      <c r="J2" t="n">
+        <v>572260.9593609554</v>
+      </c>
+      <c r="K2" t="n">
+        <v>572260.9593609554</v>
+      </c>
+      <c r="L2" t="n">
+        <v>594908.6468829912</v>
+      </c>
+      <c r="M2" t="n">
+        <v>594908.6468829906</v>
+      </c>
+      <c r="N2" t="n">
+        <v>594908.6468829906</v>
+      </c>
+      <c r="O2" t="n">
         <v>594908.6468829905</v>
       </c>
-      <c r="H2" t="n">
-        <v>594908.6468829903</v>
-      </c>
-      <c r="I2" t="n">
-        <v>594908.6468829904</v>
-      </c>
-      <c r="J2" t="n">
-        <v>572260.9593609551</v>
-      </c>
-      <c r="K2" t="n">
-        <v>572260.9593609551</v>
-      </c>
-      <c r="L2" t="n">
-        <v>594908.646882991</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>594908.6468829905</v>
-      </c>
-      <c r="N2" t="n">
-        <v>594908.6468829905</v>
-      </c>
-      <c r="O2" t="n">
-        <v>594908.6468829906</v>
-      </c>
-      <c r="P2" t="n">
-        <v>594908.6468829906</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167942.650238227</v>
+        <v>167942.6502382269</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7506.640144976827</v>
+        <v>7506.640144976951</v>
       </c>
       <c r="E3" t="n">
         <v>116101.0852352526</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>48202.39618561637</v>
+        <v>48202.39618561643</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>209669.0467558701</v>
+        <v>209669.0467558703</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>72783.92923669706</v>
+        <v>72783.92923669722</v>
       </c>
       <c r="M3" t="n">
-        <v>17577.58665631786</v>
+        <v>17577.5866563178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>42541.73622095059</v>
+        <v>42541.73622095057</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214112.3419115255</v>
+        <v>214112.3419115256</v>
       </c>
       <c r="C4" t="n">
-        <v>214112.3419115255</v>
+        <v>214112.3419115256</v>
       </c>
       <c r="D4" t="n">
         <v>208183.1070948236</v>
@@ -26430,13 +26430,13 @@
         <v>160591.1709332012</v>
       </c>
       <c r="G4" t="n">
-        <v>201285.5669603255</v>
+        <v>201285.5669603256</v>
       </c>
       <c r="H4" t="n">
-        <v>201285.5669603255</v>
+        <v>201285.5669603256</v>
       </c>
       <c r="I4" t="n">
-        <v>201285.5669603255</v>
+        <v>201285.5669603256</v>
       </c>
       <c r="J4" t="n">
         <v>182981.0487160847</v>
@@ -26457,7 +26457,7 @@
         <v>198982.8504522114</v>
       </c>
       <c r="P4" t="n">
-        <v>198982.8504522114</v>
+        <v>198982.8504522115</v>
       </c>
     </row>
     <row r="5">
@@ -26467,37 +26467,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64096.75053423429</v>
+        <v>64096.75053423428</v>
       </c>
       <c r="C5" t="n">
-        <v>64096.75053423429</v>
+        <v>64096.75053423428</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>46637.87924189358</v>
+        <v>46637.87924189356</v>
       </c>
       <c r="F5" t="n">
-        <v>46637.87924189358</v>
+        <v>46637.87924189356</v>
       </c>
       <c r="G5" t="n">
-        <v>51703.28829805431</v>
+        <v>51703.2882980543</v>
       </c>
       <c r="H5" t="n">
-        <v>51703.28829805431</v>
+        <v>51703.28829805429</v>
       </c>
       <c r="I5" t="n">
-        <v>51703.28829805431</v>
+        <v>51703.28829805429</v>
       </c>
       <c r="J5" t="n">
-        <v>55005.24122284444</v>
+        <v>55005.24122284446</v>
       </c>
       <c r="K5" t="n">
-        <v>55005.24122284444</v>
+        <v>55005.24122284445</v>
       </c>
       <c r="L5" t="n">
-        <v>56119.13824775647</v>
+        <v>56119.13824775646</v>
       </c>
       <c r="M5" t="n">
         <v>52802.81689264638</v>
@@ -26509,7 +26509,7 @@
         <v>52802.81689264637</v>
       </c>
       <c r="P5" t="n">
-        <v>52802.81689264636</v>
+        <v>52802.81689264638</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>148756.9041990041</v>
+        <v>148756.9041990046</v>
       </c>
       <c r="C6" t="n">
-        <v>316699.5544372313</v>
+        <v>316699.5544372309</v>
       </c>
       <c r="D6" t="n">
-        <v>313652.8650062791</v>
+        <v>313652.8650062792</v>
       </c>
       <c r="E6" t="n">
-        <v>215983.434457263</v>
+        <v>215804.0954991489</v>
       </c>
       <c r="F6" t="n">
-        <v>332084.5196925158</v>
+        <v>331905.1807344016</v>
       </c>
       <c r="G6" t="n">
-        <v>293717.3954389943</v>
+        <v>293717.3954389948</v>
       </c>
       <c r="H6" t="n">
-        <v>341919.7916246104</v>
+        <v>341919.7916246112</v>
       </c>
       <c r="I6" t="n">
-        <v>341919.7916246105</v>
+        <v>341919.7916246112</v>
       </c>
       <c r="J6" t="n">
-        <v>124605.6226661558</v>
+        <v>124532.5656096332</v>
       </c>
       <c r="K6" t="n">
-        <v>334274.6694220259</v>
+        <v>334201.6123655036</v>
       </c>
       <c r="L6" t="n">
-        <v>266597.4003669041</v>
+        <v>266597.4003669042</v>
       </c>
       <c r="M6" t="n">
-        <v>325545.3928818149</v>
+        <v>325545.392881815</v>
       </c>
       <c r="N6" t="n">
+        <v>343122.9795381328</v>
+      </c>
+      <c r="O6" t="n">
+        <v>300581.2433171821</v>
+      </c>
+      <c r="P6" t="n">
         <v>343122.9795381327</v>
-      </c>
-      <c r="O6" t="n">
-        <v>300581.2433171822</v>
-      </c>
-      <c r="P6" t="n">
-        <v>343122.9795381328</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>113.4301655082087</v>
       </c>
       <c r="G2" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="H2" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="I2" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="J2" t="n">
         <v>113.4301655082087</v>
@@ -26713,7 +26713,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="L2" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26725,7 +26725,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="P2" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
     </row>
     <row r="3">
@@ -26787,37 +26787,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>501.1373443130641</v>
+        <v>501.1373443130637</v>
       </c>
       <c r="C4" t="n">
-        <v>501.1373443130641</v>
+        <v>501.1373443130637</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>610.2289252924996</v>
+        <v>610.2289252924994</v>
       </c>
       <c r="F4" t="n">
-        <v>610.2289252924996</v>
+        <v>610.2289252924994</v>
       </c>
       <c r="G4" t="n">
-        <v>610.2289252924996</v>
+        <v>610.2289252924994</v>
       </c>
       <c r="H4" t="n">
-        <v>610.2289252924996</v>
+        <v>610.2289252924993</v>
       </c>
       <c r="I4" t="n">
-        <v>610.2289252924996</v>
+        <v>610.2289252924993</v>
       </c>
       <c r="J4" t="n">
-        <v>747.8500105055074</v>
+        <v>747.8500105055075</v>
       </c>
       <c r="K4" t="n">
-        <v>747.8500105055074</v>
+        <v>747.8500105055075</v>
       </c>
       <c r="L4" t="n">
-        <v>723.6841535535813</v>
+        <v>723.684153553581</v>
       </c>
       <c r="M4" t="n">
         <v>638.7584295260718</v>
@@ -26826,10 +26826,10 @@
         <v>638.7584295260717</v>
       </c>
       <c r="O4" t="n">
+        <v>638.7584295260716</v>
+      </c>
+      <c r="P4" t="n">
         <v>638.7584295260717</v>
-      </c>
-      <c r="P4" t="n">
-        <v>638.7584295260716</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>113.4301655082087</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>60.25299523202047</v>
+        <v>60.25299523202054</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>53.17717027618824</v>
+        <v>53.17717027618821</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>90.97991154587133</v>
+        <v>90.97991154587153</v>
       </c>
       <c r="M2" t="n">
-        <v>21.97198332039733</v>
+        <v>21.97198332039724</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.17717027618824</v>
+        <v>53.17717027618821</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>501.1373443130641</v>
+        <v>501.1373443130637</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>24.16585695192617</v>
+        <v>24.16585695192657</v>
       </c>
       <c r="E4" t="n">
-        <v>84.92572402750932</v>
+        <v>84.92572402750909</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260725</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60.25299523202047</v>
+        <v>60.25299523202054</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.17717027618824</v>
+        <v>53.17717027618821</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>501.1373443130641</v>
+        <v>501.1373443130637</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>24.16585695192617</v>
+        <v>24.16585695192657</v>
       </c>
       <c r="M4" t="n">
-        <v>84.92572402750932</v>
+        <v>84.92572402750909</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>236.5005135228827</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>60.87081846262095</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.359710503976665</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,16 +27509,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>145.5373015067959</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>57.09611739616889</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
         <v>59.456666199969</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
@@ -27588,7 +27588,7 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -27597,7 +27597,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>25.55531625962749</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -27622,19 +27622,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>131.3777568039554</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>154.6838323357338</v>
       </c>
     </row>
     <row r="6">
@@ -27698,22 +27698,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>29.25721791099291</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>54.61844424413371</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
         <v>151.5411742405149</v>
@@ -27783,10 +27783,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
         <v>157.7789187685189</v>
@@ -27831,10 +27831,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>14.68413607146329</v>
       </c>
       <c r="W7" t="n">
-        <v>242.6623940875475</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>353.812518231245</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>56.44696317965668</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
@@ -27919,7 +27919,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27938,16 +27938,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>24.68645909039981</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27995,7 +27995,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>57.60636999204337</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28017,16 +28017,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>99.71558964164922</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
         <v>142.7610139533483</v>
@@ -28062,16 +28062,16 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>271.7216854425707</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28114,28 +28114,28 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>109.4112227086685</v>
+      </c>
+      <c r="P11" t="n">
         <v>113.4301655082087</v>
       </c>
-      <c r="L11" t="n">
-        <v>85.71296083956594</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>113.4301655082087</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
         <v>113.4301655082087</v>
@@ -28175,7 +28175,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>57.58432885831184</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28220,10 +28220,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>11.85262580694132</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -28348,28 +28348,28 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>109.4112227086693</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
+        <v>109.4112227086684</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>113.4301655082087</v>
-      </c>
-      <c r="N14" t="n">
-        <v>113.4301655082087</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>89.73190363910518</v>
@@ -28409,7 +28409,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>57.58432885831189</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>11.85262580694176</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28561,31 +28561,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="C17" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="D17" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="E17" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="F17" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="G17" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="H17" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="I17" t="n">
-        <v>173.6831607402292</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J17" t="n">
-        <v>173.6831607402292</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -28594,13 +28594,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>78.63713588373264</v>
       </c>
       <c r="O17" t="n">
-        <v>76.04300194679655</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="S17" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="T17" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="U17" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="V17" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="W17" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="X17" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="Y17" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
     </row>
     <row r="18">
@@ -28652,7 +28652,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>125.2827913151514</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>66.09636509914641</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.114738309237</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -28770,25 +28770,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="T19" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="U19" t="n">
-        <v>173.6831607402292</v>
+        <v>156.1147383092364</v>
       </c>
       <c r="V19" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="W19" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="X19" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="Y19" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="C20" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="D20" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="E20" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="F20" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="G20" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="H20" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="I20" t="n">
-        <v>173.6831607402292</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28831,43 +28831,43 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="N20" t="n">
-        <v>173.6831607402292</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>159.9942590479205</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>162.5883929848562</v>
       </c>
       <c r="R20" t="n">
         <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="T20" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="U20" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="V20" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="W20" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="X20" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="Y20" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
     </row>
     <row r="21">
@@ -28883,7 +28883,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>57.58432885831212</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -28892,7 +28892,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>57.58432885831088</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -29004,28 +29004,28 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>148.0265635717656</v>
+        <v>130.4581411407727</v>
       </c>
       <c r="S22" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="T22" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="U22" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="V22" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="W22" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="X22" t="n">
-        <v>156.114738309237</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="Y22" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
     </row>
     <row r="23">
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="C23" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="D23" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="E23" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="F23" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="G23" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="H23" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="I23" t="n">
-        <v>173.6831607402292</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J23" t="n">
-        <v>173.6831607402292</v>
+        <v>162.5883929848564</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29074,37 +29074,37 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>76.04300194679624</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>173.6831607402292</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="T23" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="U23" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="V23" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="W23" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="X23" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="Y23" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
     </row>
     <row r="24">
@@ -29132,7 +29132,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>57.58432885831221</v>
       </c>
       <c r="I24" t="n">
         <v>67.69846245683961</v>
@@ -29168,7 +29168,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>57.58432885831107</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156.114738309237</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -29241,28 +29241,28 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>148.0265635717656</v>
+        <v>130.4581411407727</v>
       </c>
       <c r="S25" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="T25" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="U25" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="V25" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="W25" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="X25" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
       <c r="Y25" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402293</v>
       </c>
     </row>
     <row r="26">
@@ -29296,7 +29296,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J26" t="n">
-        <v>63.48602626315827</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K26" t="n">
         <v>113.4301655082087</v>
@@ -29314,7 +29314,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="P26" t="n">
-        <v>113.4301655082087</v>
+        <v>63.48602626315915</v>
       </c>
       <c r="Q26" t="n">
         <v>113.4301655082087</v>
@@ -29363,7 +29363,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29536,7 +29536,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K29" t="n">
-        <v>63.48602626315832</v>
+        <v>87.18428813226276</v>
       </c>
       <c r="L29" t="n">
         <v>113.4301655082087</v>
@@ -29557,7 +29557,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="R29" t="n">
-        <v>113.4301655082087</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
         <v>113.4301655082087</v>
@@ -29609,7 +29609,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29639,7 +29639,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>14.56549128550353</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="C32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="D32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="E32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="F32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="G32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="H32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="I32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="J32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="K32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="L32" t="n">
-        <v>144.1570818220596</v>
+        <v>10.29782984944893</v>
       </c>
       <c r="M32" t="n">
-        <v>144.1570818220596</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="O32" t="n">
-        <v>64.72300803240483</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>89.73190363910518</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="S32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="T32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="U32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="V32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="W32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="X32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="Y32" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
     </row>
     <row r="33">
@@ -29843,7 +29843,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>14.56549128550361</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29904,25 +29904,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="C34" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="D34" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="E34" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="F34" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="G34" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="H34" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="I34" t="n">
         <v>142.7610139533483</v>
@@ -29931,7 +29931,7 @@
         <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
-        <v>21.33018514711303</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29940,10 +29940,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>144.1570818220596</v>
+        <v>21.33018514711155</v>
       </c>
       <c r="O34" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -29952,28 +29952,28 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="S34" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="T34" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="U34" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="V34" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="W34" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="X34" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="Y34" t="n">
-        <v>144.1570818220596</v>
+        <v>144.1570818220597</v>
       </c>
     </row>
     <row r="35">
@@ -30007,31 +30007,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>116.9787331327014</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K35" t="n">
+      <c r="P35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
       <c r="Q35" t="n">
-        <v>40.58157162934955</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30077,13 +30077,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>14.56549128550328</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>14.56549128550327</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30147,7 +30147,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>152.6650248714419</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -30168,13 +30168,13 @@
         <v>59.456666199969</v>
       </c>
       <c r="K37" t="n">
-        <v>46.68561682995295</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>45.56176619902598</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30247,7 +30247,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>166.1290651424569</v>
+        <v>116.9787331327011</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30259,16 +30259,16 @@
         <v>166.1290651424569</v>
       </c>
       <c r="O38" t="n">
-        <v>40.58157162934896</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="R38" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30317,7 +30317,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30390,7 +30390,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G40" t="n">
         <v>166.1290651424569</v>
@@ -30399,7 +30399,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
-        <v>142.7610139533483</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="J40" t="n">
         <v>59.456666199969</v>
@@ -30417,13 +30417,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>22.19371500991728</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.83758476280077</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R40" t="n">
         <v>148.0265635717656</v>
@@ -30481,28 +30481,28 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>116.9787331327009</v>
+      </c>
+      <c r="Q41" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="M41" t="n">
-        <v>116.978733132701</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>166.1290651424569</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>89.73190363910518</v>
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30627,7 +30627,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G43" t="n">
         <v>166.1290651424569</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>46.68561682995298</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.15196793284785</v>
+        <v>83.71373413187378</v>
       </c>
       <c r="R43" t="n">
         <v>148.0265635717656</v>
@@ -30694,40 +30694,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="C44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="D44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="E44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="F44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="G44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="H44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="I44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>166.129065142457</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="M44" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30736,34 +30736,34 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>40.58157162934964</v>
+        <v>116.9787331327009</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="T44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="U44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="V44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="W44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="X44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="Y44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
     </row>
     <row r="45">
@@ -30791,7 +30791,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30833,7 +30833,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>14.56549128550333</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="C46" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,7 +30867,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="H46" t="n">
         <v>157.7789187685189</v>
@@ -30882,7 +30882,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>46.68561682995335</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30891,7 +30891,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>46.68561682995272</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S46" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="T46" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="U46" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="V46" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="W46" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="X46" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="Y46" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>219.6048051172098</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
         <v>351.3993667524709</v>
@@ -34711,13 +34711,13 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
-        <v>308.0854388614484</v>
+        <v>307.7845241493116</v>
       </c>
       <c r="P2" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
         <v>231.8086389496855</v>
@@ -34784,16 +34784,16 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>489.93268031336</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>32.36882689013967</v>
+        <v>501.1373443130637</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>305.147393207775</v>
+        <v>265.4487818223446</v>
       </c>
       <c r="Q3" t="n">
         <v>159.3652826117113</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
-        <v>255.71233720545</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M5" t="n">
         <v>397.2112790435232</v>
@@ -34951,7 +34951,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>230.4615115717709</v>
+        <v>207.5002843205114</v>
       </c>
       <c r="Q5" t="n">
         <v>95.38611483488586</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>192.1100275642563</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>501.1373443130641</v>
+        <v>32.36882689013805</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35252,13 +35252,13 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>40.69581689574456</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
         <v>516.4299455789112</v>
@@ -35267,7 +35267,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>305.147393207775</v>
+        <v>87.71916873984496</v>
       </c>
       <c r="Q9" t="n">
         <v>159.3652826117113</v>
@@ -35410,10 +35410,10 @@
         <v>186.155967803972</v>
       </c>
       <c r="K11" t="n">
-        <v>355.9961978766761</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
-        <v>437.1123275920369</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M11" t="n">
         <v>397.2112790435232</v>
@@ -35422,16 +35422,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>308.0854388614484</v>
+        <v>417.4966615701169</v>
       </c>
       <c r="P11" t="n">
-        <v>230.4615115717709</v>
+        <v>343.8916770799797</v>
       </c>
       <c r="Q11" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R11" t="n">
-        <v>23.69826186910353</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
-        <v>179.7061035330225</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L12" t="n">
         <v>369.5170153233491</v>
@@ -35501,7 +35501,7 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O12" t="n">
-        <v>396.1615664486372</v>
+        <v>283.1962567561084</v>
       </c>
       <c r="P12" t="n">
         <v>305.147393207775</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>53.97349930823972</v>
+        <v>53.97349930823975</v>
       </c>
       <c r="K13" t="n">
         <v>147.373789492697</v>
@@ -35574,19 +35574,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M13" t="n">
-        <v>232.6155252330589</v>
+        <v>232.615525233059</v>
       </c>
       <c r="N13" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O13" t="n">
-        <v>212.8883942917336</v>
+        <v>212.8883942917337</v>
       </c>
       <c r="P13" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.27819757536086</v>
+        <v>75.27819757536089</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>72.72580229576329</v>
+        <v>186.155967803972</v>
       </c>
       <c r="K14" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L14" t="n">
-        <v>460.8105894611402</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
-        <v>510.6414445517319</v>
+        <v>506.6225017521916</v>
       </c>
       <c r="N14" t="n">
-        <v>495.583053071558</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O14" t="n">
         <v>308.0854388614484</v>
@@ -35665,7 +35665,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.38611483488586</v>
+        <v>208.8162803430946</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
-        <v>179.7061035330225</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
         <v>369.5170153233491</v>
@@ -35735,7 +35735,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N15" t="n">
-        <v>516.4299455789112</v>
+        <v>403.4646358863826</v>
       </c>
       <c r="O15" t="n">
         <v>396.1615664486372</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>53.97349930823973</v>
+        <v>53.97349930823975</v>
       </c>
       <c r="K16" t="n">
         <v>147.373789492697</v>
@@ -35823,7 +35823,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.27819757536088</v>
+        <v>75.27819757536089</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,10 +35878,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.594133936937254</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>246.4089630359925</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
         <v>242.5660323684674</v>
@@ -35890,13 +35890,13 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
-        <v>397.2112790435232</v>
+        <v>570.8944397837524</v>
       </c>
       <c r="N17" t="n">
-        <v>382.1528875633492</v>
+        <v>460.7900234470819</v>
       </c>
       <c r="O17" t="n">
-        <v>384.128440808245</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
         <v>230.4615115717709</v>
@@ -35905,7 +35905,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
-        <v>83.95125710112401</v>
+        <v>83.9512571011241</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.39997291918311</v>
+        <v>46.39997291918218</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.594133936937254</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>72.72580229576329</v>
@@ -36127,19 +36127,19 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
-        <v>397.2112790435232</v>
+        <v>570.8944397837524</v>
       </c>
       <c r="N20" t="n">
-        <v>555.8360483035784</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O20" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>390.4557706196914</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
-        <v>95.38611483488586</v>
+        <v>257.974507819742</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
-        <v>118.8433292571578</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L21" t="n">
-        <v>369.5170153233491</v>
+        <v>256.55170563082</v>
       </c>
       <c r="M21" t="n">
         <v>489.93268031336</v>
@@ -36352,10 +36352,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2.594133936937254</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>246.4089630359925</v>
+        <v>235.3141952806197</v>
       </c>
       <c r="K23" t="n">
         <v>242.5660323684674</v>
@@ -36370,16 +36370,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
-        <v>308.0854388614484</v>
+        <v>481.7685996016777</v>
       </c>
       <c r="P23" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
-        <v>171.4291167816821</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R23" t="n">
-        <v>83.95125710112401</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
-        <v>256.5517056308214</v>
+        <v>256.55170563082</v>
       </c>
       <c r="M24" t="n">
         <v>489.93268031336</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.2118285589216</v>
+        <v>186.155967803972</v>
       </c>
       <c r="K26" t="n">
         <v>355.9961978766762</v>
@@ -36610,7 +36610,7 @@
         <v>421.5156043696572</v>
       </c>
       <c r="P26" t="n">
-        <v>343.8916770799797</v>
+        <v>293.9475378349301</v>
       </c>
       <c r="Q26" t="n">
         <v>208.8162803430946</v>
@@ -36832,7 +36832,7 @@
         <v>186.155967803972</v>
       </c>
       <c r="K29" t="n">
-        <v>306.0520586316258</v>
+        <v>329.7503205007302</v>
       </c>
       <c r="L29" t="n">
         <v>464.8295322606797</v>
@@ -36844,7 +36844,7 @@
         <v>495.583053071558</v>
       </c>
       <c r="O29" t="n">
-        <v>421.5156043696572</v>
+        <v>421.5156043696571</v>
       </c>
       <c r="P29" t="n">
         <v>343.8916770799797</v>
@@ -36853,7 +36853,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R29" t="n">
-        <v>23.69826186910356</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>53.97349930823975</v>
+        <v>53.97349930823972</v>
       </c>
       <c r="K31" t="n">
         <v>147.373789492697</v>
@@ -36996,19 +36996,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M31" t="n">
-        <v>232.615525233059</v>
+        <v>232.6155252330589</v>
       </c>
       <c r="N31" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O31" t="n">
-        <v>212.8883942917337</v>
+        <v>212.8883942917336</v>
       </c>
       <c r="P31" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.27819757536089</v>
+        <v>75.27819757536086</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>216.8828841178229</v>
+        <v>216.882884117823</v>
       </c>
       <c r="K32" t="n">
-        <v>386.723114190527</v>
+        <v>386.7231141905271</v>
       </c>
       <c r="L32" t="n">
-        <v>495.5564485745306</v>
+        <v>361.6971966019199</v>
       </c>
       <c r="M32" t="n">
-        <v>541.3683608655828</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N32" t="n">
-        <v>526.3099693854089</v>
+        <v>526.309969385409</v>
       </c>
       <c r="O32" t="n">
-        <v>372.8084468938533</v>
+        <v>452.2425206835081</v>
       </c>
       <c r="P32" t="n">
-        <v>230.4615115717709</v>
+        <v>374.6185933938306</v>
       </c>
       <c r="Q32" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.42517818295451</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>55.27380913160133</v>
+        <v>178.100705806548</v>
       </c>
       <c r="L34" t="n">
         <v>101.6233125255146</v>
@@ -37236,10 +37236,10 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
-        <v>263.7756088418579</v>
+        <v>140.9487121669099</v>
       </c>
       <c r="O34" t="n">
-        <v>243.6153106055845</v>
+        <v>243.6153106055846</v>
       </c>
       <c r="P34" t="n">
         <v>63.604529018321</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>408.6950975109244</v>
+        <v>359.5447655011688</v>
       </c>
       <c r="L35" t="n">
         <v>351.3993667524709</v>
@@ -37318,16 +37318,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P35" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q35" t="n">
-        <v>135.9676864642354</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37443,7 +37443,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37464,13 +37464,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>80.62924081444125</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L37" t="n">
         <v>101.6233125255146</v>
       </c>
       <c r="M37" t="n">
-        <v>119.1853597248502</v>
+        <v>164.7471259238762</v>
       </c>
       <c r="N37" t="n">
         <v>119.6185270197983</v>
@@ -37543,7 +37543,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K38" t="n">
-        <v>408.6950975109244</v>
+        <v>359.5447655011686</v>
       </c>
       <c r="L38" t="n">
         <v>351.3993667524709</v>
@@ -37555,16 +37555,16 @@
         <v>548.2819527058061</v>
       </c>
       <c r="O38" t="n">
-        <v>348.6670104907974</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P38" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R38" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,13 +37631,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N39" t="n">
-        <v>516.4299455789112</v>
+        <v>516.4299455789111</v>
       </c>
       <c r="O39" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P39" t="n">
-        <v>305.1473932077745</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q39" t="n">
         <v>159.3652826117113</v>
@@ -37686,7 +37686,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>23.36805118910868</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37713,13 +37713,13 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O40" t="n">
-        <v>99.45822878352493</v>
+        <v>121.6519437934422</v>
       </c>
       <c r="P40" t="n">
         <v>63.604529018321</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.68561682995292</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K41" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M41" t="n">
-        <v>514.1900121762242</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
         <v>382.1528875633492</v>
@@ -37795,10 +37795,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
-        <v>396.5905767142278</v>
+        <v>347.4402447044718</v>
       </c>
       <c r="Q41" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.3652826117107</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M43" t="n">
-        <v>165.8709765548032</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N43" t="n">
         <v>119.6185270197983</v>
@@ -37956,7 +37956,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>45.56176619902593</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382203</v>
       </c>
       <c r="K44" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
-        <v>517.5284318949278</v>
+        <v>517.528431894928</v>
       </c>
       <c r="M44" t="n">
-        <v>563.34034418598</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
         <v>382.1528875633492</v>
@@ -38032,13 +38032,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
-        <v>271.0430832011206</v>
+        <v>347.4402447044718</v>
       </c>
       <c r="Q44" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
-        <v>76.39716150335173</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M45" t="n">
-        <v>489.93268031336</v>
+        <v>489.9326803133602</v>
       </c>
       <c r="N45" t="n">
         <v>516.4299455789112</v>
@@ -38178,7 +38178,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L46" t="n">
-        <v>148.308929355468</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M46" t="n">
         <v>119.1853597248502</v>
@@ -38187,7 +38187,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O46" t="n">
-        <v>99.45822878352493</v>
+        <v>146.1438456134777</v>
       </c>
       <c r="P46" t="n">
         <v>63.604529018321</v>
